--- a/xls/incorrect/G2_TP_B.xlsx
+++ b/xls/incorrect/G2_TP_B.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="30" windowWidth="23715" windowHeight="10050"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="10050"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -16,24 +16,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="21">
   <si>
-    <t>pe</t>
+    <t>go</t>
   </si>
   <si>
-    <t>fi</t>
+    <t>lu</t>
   </si>
   <si>
-    <t>lo</t>
+    <t>ti</t>
   </si>
   <si>
-    <t>bo</t>
-  </si>
-  <si>
-    <t>fu</t>
-  </si>
-  <si>
-    <t>fa</t>
+    <t>we</t>
   </si>
   <si>
     <t>ta</t>
@@ -42,19 +36,49 @@
     <t>ki</t>
   </si>
   <si>
-    <t>so</t>
+    <t>si</t>
   </si>
   <si>
-    <t>ne</t>
+    <t>na</t>
+  </si>
+  <si>
+    <t>me</t>
+  </si>
+  <si>
+    <t>la</t>
+  </si>
+  <si>
+    <t>pu</t>
+  </si>
+  <si>
+    <t>tu</t>
+  </si>
+  <si>
+    <t>ba</t>
+  </si>
+  <si>
+    <t>ko</t>
+  </si>
+  <si>
+    <t>hi</t>
   </si>
   <si>
     <t>to</t>
   </si>
   <si>
-    <t>se</t>
+    <t>ka</t>
   </si>
   <si>
-    <t>ba</t>
+    <t>no</t>
+  </si>
+  <si>
+    <t>nu</t>
+  </si>
+  <si>
+    <t>ku</t>
+  </si>
+  <si>
+    <t>po</t>
   </si>
 </sst>
 </file>
@@ -393,35 +417,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M42"/>
+  <dimension ref="A1:M64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="G1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="H1">
         <v>11</v>
@@ -444,25 +468,25 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G2" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="H2">
         <v>11</v>
@@ -485,25 +509,25 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="G3" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="H3">
         <v>11</v>
@@ -526,25 +550,25 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="B4" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G4" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="H4">
         <v>11</v>
@@ -567,25 +591,25 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>5</v>
+        <v>53</v>
       </c>
       <c r="B5" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F5" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G5" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="H5">
         <v>11</v>
@@ -608,25 +632,25 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>67</v>
+        <v>1</v>
       </c>
       <c r="B6" t="s">
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F6" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="G6" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="H6">
         <v>11</v>
@@ -649,25 +673,25 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="B7" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="E7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G7" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="H7">
         <v>11</v>
@@ -690,25 +714,25 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="B8" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="E8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G8" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="H8">
         <v>11</v>
@@ -731,25 +755,25 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="B9" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D9" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="E9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F9" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="G9" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="H9">
         <v>11</v>
@@ -772,25 +796,25 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="B10" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E10" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G10" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="H10">
         <v>11</v>
@@ -813,25 +837,25 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D11" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E11" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F11" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="G11" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="H11">
         <v>11</v>
@@ -854,25 +878,25 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>68</v>
+        <v>17</v>
       </c>
       <c r="B12" t="s">
         <v>0</v>
       </c>
       <c r="C12" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E12" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F12" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="G12" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="H12">
         <v>11</v>
@@ -895,25 +919,25 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B13" t="s">
         <v>0</v>
       </c>
       <c r="C13" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="E13" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F13" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="G13" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="H13">
         <v>11</v>
@@ -936,25 +960,25 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="B14" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
         <v>2</v>
       </c>
-      <c r="D14" t="s">
-        <v>5</v>
-      </c>
       <c r="E14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F14" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G14" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="H14">
         <v>11</v>
@@ -977,25 +1001,25 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D15" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="E15" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F15" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="G15" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="H15">
         <v>11</v>
@@ -1018,25 +1042,25 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="B16" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C16" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="E16" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F16" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G16" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="H16">
         <v>11</v>
@@ -1059,25 +1083,25 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="B17" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C17" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E17" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F17" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G17" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="H17">
         <v>11</v>
@@ -1100,25 +1124,25 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="B18" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C18" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E18" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F18" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G18" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="H18">
         <v>11</v>
@@ -1141,25 +1165,25 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="B19" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C19" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="E19" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F19" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G19" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="H19">
         <v>11</v>
@@ -1182,25 +1206,25 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="B20" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C20" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D20" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F20" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G20" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="H20">
         <v>11</v>
@@ -1223,25 +1247,25 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="B21" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C21" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D21" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F21" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G21" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="H21">
         <v>11</v>
@@ -1264,25 +1288,25 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B22" t="s">
         <v>0</v>
       </c>
       <c r="C22" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D22" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E22" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F22" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="G22" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="H22">
         <v>11</v>
@@ -1305,25 +1329,25 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B23" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C23" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D23" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E23" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F23" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="G23" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="H23">
         <v>11</v>
@@ -1346,25 +1370,25 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>69</v>
+        <v>18</v>
       </c>
       <c r="B24" t="s">
         <v>0</v>
       </c>
       <c r="C24" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="E24" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F24" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="G24" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="H24">
         <v>11</v>
@@ -1387,25 +1411,25 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="B25" t="s">
         <v>0</v>
       </c>
       <c r="C25" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D25" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="E25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F25" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="G25" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="H25">
         <v>11</v>
@@ -1428,25 +1452,25 @@
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C26" t="s">
+        <v>1</v>
+      </c>
+      <c r="D26" t="s">
         <v>2</v>
       </c>
-      <c r="D26" t="s">
-        <v>5</v>
-      </c>
       <c r="E26" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F26" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="G26" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="H26">
         <v>11</v>
@@ -1469,25 +1493,25 @@
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B27" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C27" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D27" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="E27" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F27" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G27" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="H27">
         <v>11</v>
@@ -1510,25 +1534,25 @@
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B28" t="s">
         <v>0</v>
       </c>
       <c r="C28" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D28" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E28" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F28" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="G28" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="H28">
         <v>11</v>
@@ -1551,25 +1575,25 @@
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="B29" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C29" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D29" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E29" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F29" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="G29" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="H29">
         <v>11</v>
@@ -1592,25 +1616,25 @@
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="B30" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C30" t="s">
+        <v>1</v>
+      </c>
+      <c r="D30" t="s">
         <v>2</v>
       </c>
-      <c r="D30" t="s">
-        <v>9</v>
-      </c>
       <c r="E30" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F30" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G30" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="H30">
         <v>11</v>
@@ -1633,25 +1657,25 @@
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>88</v>
+        <v>24</v>
       </c>
       <c r="B31" t="s">
         <v>0</v>
       </c>
       <c r="C31" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D31" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E31" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F31" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="G31" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="H31">
         <v>11</v>
@@ -1674,25 +1698,25 @@
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>99</v>
+        <v>29</v>
       </c>
       <c r="B32" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C32" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D32" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="E32" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F32" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G32" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="H32">
         <v>11</v>
@@ -1715,25 +1739,25 @@
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>86</v>
+        <v>54</v>
       </c>
       <c r="B33" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C33" t="s">
+        <v>1</v>
+      </c>
+      <c r="D33" t="s">
         <v>2</v>
       </c>
-      <c r="D33" t="s">
-        <v>6</v>
-      </c>
       <c r="E33" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F33" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G33" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="H33">
         <v>11</v>
@@ -1756,25 +1780,25 @@
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="B34" t="s">
         <v>0</v>
       </c>
       <c r="C34" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D34" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="E34" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F34" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="G34" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="H34">
         <v>11</v>
@@ -1797,25 +1821,25 @@
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="B35" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C35" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D35" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E35" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F35" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G35" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="H35">
         <v>11</v>
@@ -1838,25 +1862,25 @@
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>2</v>
+        <v>53</v>
       </c>
       <c r="B36" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C36" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F36" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G36" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="H36">
         <v>11</v>
@@ -1879,25 +1903,25 @@
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B37" t="s">
         <v>0</v>
       </c>
       <c r="C37" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D37" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="E37" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F37" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="G37" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="H37">
         <v>11</v>
@@ -1920,25 +1944,25 @@
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="B38" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C38" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D38" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="E38" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F38" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G38" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="H38">
         <v>11</v>
@@ -1961,25 +1985,25 @@
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>89</v>
+        <v>10</v>
       </c>
       <c r="B39" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C39" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D39" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="E39" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F39" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="G39" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="H39">
         <v>11</v>
@@ -2002,25 +2026,25 @@
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="B40" t="s">
         <v>0</v>
       </c>
       <c r="C40" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D40" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E40" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F40" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="G40" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="H40">
         <v>11</v>
@@ -2043,25 +2067,25 @@
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="B41" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C41" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D41" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="E41" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F41" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="G41" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="H41">
         <v>11</v>
@@ -2084,42 +2108,944 @@
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>112</v>
+        <v>44</v>
       </c>
       <c r="B42" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C42" t="s">
+        <v>5</v>
+      </c>
+      <c r="D42" t="s">
+        <v>7</v>
+      </c>
+      <c r="E42" t="s">
+        <v>3</v>
+      </c>
+      <c r="F42" t="s">
+        <v>8</v>
+      </c>
+      <c r="G42" t="s">
+        <v>1</v>
+      </c>
+      <c r="H42">
+        <v>11</v>
+      </c>
+      <c r="I42">
+        <v>12</v>
+      </c>
+      <c r="J42">
+        <v>21</v>
+      </c>
+      <c r="K42">
+        <v>22</v>
+      </c>
+      <c r="L42">
+        <v>31</v>
+      </c>
+      <c r="M42">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>51</v>
+      </c>
+      <c r="B43" t="s">
+        <v>6</v>
+      </c>
+      <c r="C43" t="s">
+        <v>5</v>
+      </c>
+      <c r="D43" t="s">
+        <v>10</v>
+      </c>
+      <c r="E43" t="s">
+        <v>3</v>
+      </c>
+      <c r="F43" t="s">
+        <v>8</v>
+      </c>
+      <c r="G43" t="s">
+        <v>1</v>
+      </c>
+      <c r="H43">
+        <v>11</v>
+      </c>
+      <c r="I43">
+        <v>12</v>
+      </c>
+      <c r="J43">
+        <v>21</v>
+      </c>
+      <c r="K43">
+        <v>22</v>
+      </c>
+      <c r="L43">
+        <v>31</v>
+      </c>
+      <c r="M43">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>24</v>
+      </c>
+      <c r="B44" t="s">
+        <v>0</v>
+      </c>
+      <c r="C44" t="s">
+        <v>5</v>
+      </c>
+      <c r="D44" t="s">
+        <v>15</v>
+      </c>
+      <c r="E44" t="s">
+        <v>3</v>
+      </c>
+      <c r="F44" t="s">
+        <v>4</v>
+      </c>
+      <c r="G44" t="s">
+        <v>1</v>
+      </c>
+      <c r="H44">
+        <v>11</v>
+      </c>
+      <c r="I44">
+        <v>12</v>
+      </c>
+      <c r="J44">
+        <v>21</v>
+      </c>
+      <c r="K44">
+        <v>22</v>
+      </c>
+      <c r="L44">
+        <v>31</v>
+      </c>
+      <c r="M44">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>26</v>
+      </c>
+      <c r="B45" t="s">
+        <v>0</v>
+      </c>
+      <c r="C45" t="s">
+        <v>1</v>
+      </c>
+      <c r="D45" t="s">
         <v>2</v>
       </c>
-      <c r="D42" t="s">
+      <c r="E45" t="s">
+        <v>3</v>
+      </c>
+      <c r="F45" t="s">
+        <v>4</v>
+      </c>
+      <c r="G45" t="s">
+        <v>5</v>
+      </c>
+      <c r="H45">
+        <v>11</v>
+      </c>
+      <c r="I45">
+        <v>12</v>
+      </c>
+      <c r="J45">
+        <v>21</v>
+      </c>
+      <c r="K45">
+        <v>22</v>
+      </c>
+      <c r="L45">
+        <v>31</v>
+      </c>
+      <c r="M45">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>18</v>
+      </c>
+      <c r="B46" t="s">
+        <v>0</v>
+      </c>
+      <c r="C46" t="s">
+        <v>1</v>
+      </c>
+      <c r="D46" t="s">
+        <v>18</v>
+      </c>
+      <c r="E46" t="s">
+        <v>3</v>
+      </c>
+      <c r="F46" t="s">
+        <v>4</v>
+      </c>
+      <c r="G46" t="s">
+        <v>5</v>
+      </c>
+      <c r="H46">
+        <v>11</v>
+      </c>
+      <c r="I46">
+        <v>12</v>
+      </c>
+      <c r="J46">
+        <v>21</v>
+      </c>
+      <c r="K46">
+        <v>22</v>
+      </c>
+      <c r="L46">
+        <v>31</v>
+      </c>
+      <c r="M46">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>39</v>
+      </c>
+      <c r="B47" t="s">
+        <v>6</v>
+      </c>
+      <c r="C47" t="s">
+        <v>5</v>
+      </c>
+      <c r="D47" t="s">
+        <v>13</v>
+      </c>
+      <c r="E47" t="s">
+        <v>3</v>
+      </c>
+      <c r="F47" t="s">
+        <v>8</v>
+      </c>
+      <c r="G47" t="s">
+        <v>1</v>
+      </c>
+      <c r="H47">
+        <v>11</v>
+      </c>
+      <c r="I47">
+        <v>12</v>
+      </c>
+      <c r="J47">
+        <v>21</v>
+      </c>
+      <c r="K47">
+        <v>22</v>
+      </c>
+      <c r="L47">
+        <v>31</v>
+      </c>
+      <c r="M47">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>37</v>
+      </c>
+      <c r="B48" t="s">
+        <v>6</v>
+      </c>
+      <c r="C48" t="s">
+        <v>1</v>
+      </c>
+      <c r="D48" t="s">
+        <v>14</v>
+      </c>
+      <c r="E48" t="s">
+        <v>3</v>
+      </c>
+      <c r="F48" t="s">
+        <v>8</v>
+      </c>
+      <c r="G48" t="s">
+        <v>5</v>
+      </c>
+      <c r="H48">
+        <v>11</v>
+      </c>
+      <c r="I48">
+        <v>12</v>
+      </c>
+      <c r="J48">
+        <v>21</v>
+      </c>
+      <c r="K48">
+        <v>22</v>
+      </c>
+      <c r="L48">
+        <v>31</v>
+      </c>
+      <c r="M48">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>54</v>
+      </c>
+      <c r="B49" t="s">
+        <v>6</v>
+      </c>
+      <c r="C49" t="s">
+        <v>1</v>
+      </c>
+      <c r="D49" t="s">
+        <v>2</v>
+      </c>
+      <c r="E49" t="s">
+        <v>3</v>
+      </c>
+      <c r="F49" t="s">
+        <v>8</v>
+      </c>
+      <c r="G49" t="s">
+        <v>5</v>
+      </c>
+      <c r="H49">
+        <v>11</v>
+      </c>
+      <c r="I49">
+        <v>12</v>
+      </c>
+      <c r="J49">
+        <v>21</v>
+      </c>
+      <c r="K49">
+        <v>22</v>
+      </c>
+      <c r="L49">
+        <v>31</v>
+      </c>
+      <c r="M49">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>29</v>
+      </c>
+      <c r="B50" t="s">
+        <v>6</v>
+      </c>
+      <c r="C50" t="s">
+        <v>1</v>
+      </c>
+      <c r="D50" t="s">
+        <v>12</v>
+      </c>
+      <c r="E50" t="s">
+        <v>3</v>
+      </c>
+      <c r="F50" t="s">
+        <v>8</v>
+      </c>
+      <c r="G50" t="s">
+        <v>5</v>
+      </c>
+      <c r="H50">
+        <v>11</v>
+      </c>
+      <c r="I50">
+        <v>12</v>
+      </c>
+      <c r="J50">
+        <v>21</v>
+      </c>
+      <c r="K50">
+        <v>22</v>
+      </c>
+      <c r="L50">
+        <v>31</v>
+      </c>
+      <c r="M50">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>37</v>
+      </c>
+      <c r="B51" t="s">
+        <v>6</v>
+      </c>
+      <c r="C51" t="s">
+        <v>1</v>
+      </c>
+      <c r="D51" t="s">
+        <v>14</v>
+      </c>
+      <c r="E51" t="s">
+        <v>3</v>
+      </c>
+      <c r="F51" t="s">
+        <v>8</v>
+      </c>
+      <c r="G51" t="s">
+        <v>5</v>
+      </c>
+      <c r="H51">
+        <v>11</v>
+      </c>
+      <c r="I51">
+        <v>12</v>
+      </c>
+      <c r="J51">
+        <v>21</v>
+      </c>
+      <c r="K51">
+        <v>22</v>
+      </c>
+      <c r="L51">
+        <v>31</v>
+      </c>
+      <c r="M51">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>1</v>
+      </c>
+      <c r="B52" t="s">
+        <v>0</v>
+      </c>
+      <c r="C52" t="s">
+        <v>1</v>
+      </c>
+      <c r="D52" t="s">
+        <v>12</v>
+      </c>
+      <c r="E52" t="s">
+        <v>3</v>
+      </c>
+      <c r="F52" t="s">
+        <v>4</v>
+      </c>
+      <c r="G52" t="s">
+        <v>5</v>
+      </c>
+      <c r="H52">
+        <v>11</v>
+      </c>
+      <c r="I52">
+        <v>12</v>
+      </c>
+      <c r="J52">
+        <v>21</v>
+      </c>
+      <c r="K52">
+        <v>22</v>
+      </c>
+      <c r="L52">
+        <v>31</v>
+      </c>
+      <c r="M52">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>10</v>
+      </c>
+      <c r="B53" t="s">
+        <v>0</v>
+      </c>
+      <c r="C53" t="s">
+        <v>5</v>
+      </c>
+      <c r="D53" t="s">
+        <v>16</v>
+      </c>
+      <c r="E53" t="s">
+        <v>3</v>
+      </c>
+      <c r="F53" t="s">
+        <v>4</v>
+      </c>
+      <c r="G53" t="s">
+        <v>1</v>
+      </c>
+      <c r="H53">
+        <v>11</v>
+      </c>
+      <c r="I53">
+        <v>12</v>
+      </c>
+      <c r="J53">
+        <v>21</v>
+      </c>
+      <c r="K53">
+        <v>22</v>
+      </c>
+      <c r="L53">
+        <v>31</v>
+      </c>
+      <c r="M53">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>51</v>
+      </c>
+      <c r="B54" t="s">
+        <v>6</v>
+      </c>
+      <c r="C54" t="s">
+        <v>5</v>
+      </c>
+      <c r="D54" t="s">
+        <v>10</v>
+      </c>
+      <c r="E54" t="s">
+        <v>3</v>
+      </c>
+      <c r="F54" t="s">
+        <v>8</v>
+      </c>
+      <c r="G54" t="s">
+        <v>1</v>
+      </c>
+      <c r="H54">
+        <v>11</v>
+      </c>
+      <c r="I54">
+        <v>12</v>
+      </c>
+      <c r="J54">
+        <v>21</v>
+      </c>
+      <c r="K54">
+        <v>22</v>
+      </c>
+      <c r="L54">
+        <v>31</v>
+      </c>
+      <c r="M54">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>53</v>
+      </c>
+      <c r="B55" t="s">
+        <v>6</v>
+      </c>
+      <c r="C55" t="s">
+        <v>5</v>
+      </c>
+      <c r="D55" t="s">
+        <v>11</v>
+      </c>
+      <c r="E55" t="s">
+        <v>3</v>
+      </c>
+      <c r="F55" t="s">
+        <v>8</v>
+      </c>
+      <c r="G55" t="s">
+        <v>1</v>
+      </c>
+      <c r="H55">
+        <v>11</v>
+      </c>
+      <c r="I55">
+        <v>12</v>
+      </c>
+      <c r="J55">
+        <v>21</v>
+      </c>
+      <c r="K55">
+        <v>22</v>
+      </c>
+      <c r="L55">
+        <v>31</v>
+      </c>
+      <c r="M55">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>17</v>
+      </c>
+      <c r="B56" t="s">
+        <v>0</v>
+      </c>
+      <c r="C56" t="s">
+        <v>5</v>
+      </c>
+      <c r="D56" t="s">
+        <v>17</v>
+      </c>
+      <c r="E56" t="s">
+        <v>3</v>
+      </c>
+      <c r="F56" t="s">
+        <v>4</v>
+      </c>
+      <c r="G56" t="s">
+        <v>1</v>
+      </c>
+      <c r="H56">
+        <v>11</v>
+      </c>
+      <c r="I56">
+        <v>12</v>
+      </c>
+      <c r="J56">
+        <v>21</v>
+      </c>
+      <c r="K56">
+        <v>22</v>
+      </c>
+      <c r="L56">
+        <v>31</v>
+      </c>
+      <c r="M56">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>13</v>
+      </c>
+      <c r="B57" t="s">
+        <v>0</v>
+      </c>
+      <c r="C57" t="s">
+        <v>1</v>
+      </c>
+      <c r="D57" t="s">
         <v>9</v>
       </c>
-      <c r="E42" t="s">
-        <v>4</v>
-      </c>
-      <c r="F42" t="s">
-        <v>10</v>
-      </c>
-      <c r="G42" t="s">
-        <v>12</v>
-      </c>
-      <c r="H42">
-        <v>11</v>
-      </c>
-      <c r="I42">
-        <v>12</v>
-      </c>
-      <c r="J42">
-        <v>21</v>
-      </c>
-      <c r="K42">
-        <v>22</v>
-      </c>
-      <c r="L42">
-        <v>31</v>
-      </c>
-      <c r="M42">
+      <c r="E57" t="s">
+        <v>3</v>
+      </c>
+      <c r="F57" t="s">
+        <v>4</v>
+      </c>
+      <c r="G57" t="s">
+        <v>5</v>
+      </c>
+      <c r="H57">
+        <v>11</v>
+      </c>
+      <c r="I57">
+        <v>12</v>
+      </c>
+      <c r="J57">
+        <v>21</v>
+      </c>
+      <c r="K57">
+        <v>22</v>
+      </c>
+      <c r="L57">
+        <v>31</v>
+      </c>
+      <c r="M57">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>26</v>
+      </c>
+      <c r="B58" t="s">
+        <v>0</v>
+      </c>
+      <c r="C58" t="s">
+        <v>1</v>
+      </c>
+      <c r="D58" t="s">
+        <v>2</v>
+      </c>
+      <c r="E58" t="s">
+        <v>3</v>
+      </c>
+      <c r="F58" t="s">
+        <v>4</v>
+      </c>
+      <c r="G58" t="s">
+        <v>5</v>
+      </c>
+      <c r="H58">
+        <v>11</v>
+      </c>
+      <c r="I58">
+        <v>12</v>
+      </c>
+      <c r="J58">
+        <v>21</v>
+      </c>
+      <c r="K58">
+        <v>22</v>
+      </c>
+      <c r="L58">
+        <v>31</v>
+      </c>
+      <c r="M58">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>24</v>
+      </c>
+      <c r="B59" t="s">
+        <v>0</v>
+      </c>
+      <c r="C59" t="s">
+        <v>5</v>
+      </c>
+      <c r="D59" t="s">
+        <v>15</v>
+      </c>
+      <c r="E59" t="s">
+        <v>3</v>
+      </c>
+      <c r="F59" t="s">
+        <v>4</v>
+      </c>
+      <c r="G59" t="s">
+        <v>1</v>
+      </c>
+      <c r="H59">
+        <v>11</v>
+      </c>
+      <c r="I59">
+        <v>12</v>
+      </c>
+      <c r="J59">
+        <v>21</v>
+      </c>
+      <c r="K59">
+        <v>22</v>
+      </c>
+      <c r="L59">
+        <v>31</v>
+      </c>
+      <c r="M59">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>44</v>
+      </c>
+      <c r="B60" t="s">
+        <v>6</v>
+      </c>
+      <c r="C60" t="s">
+        <v>5</v>
+      </c>
+      <c r="D60" t="s">
+        <v>7</v>
+      </c>
+      <c r="E60" t="s">
+        <v>3</v>
+      </c>
+      <c r="F60" t="s">
+        <v>8</v>
+      </c>
+      <c r="G60" t="s">
+        <v>1</v>
+      </c>
+      <c r="H60">
+        <v>11</v>
+      </c>
+      <c r="I60">
+        <v>12</v>
+      </c>
+      <c r="J60">
+        <v>21</v>
+      </c>
+      <c r="K60">
+        <v>22</v>
+      </c>
+      <c r="L60">
+        <v>31</v>
+      </c>
+      <c r="M60">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>39</v>
+      </c>
+      <c r="B61" t="s">
+        <v>6</v>
+      </c>
+      <c r="C61" t="s">
+        <v>5</v>
+      </c>
+      <c r="D61" t="s">
+        <v>13</v>
+      </c>
+      <c r="E61" t="s">
+        <v>3</v>
+      </c>
+      <c r="F61" t="s">
+        <v>8</v>
+      </c>
+      <c r="G61" t="s">
+        <v>1</v>
+      </c>
+      <c r="H61">
+        <v>11</v>
+      </c>
+      <c r="I61">
+        <v>12</v>
+      </c>
+      <c r="J61">
+        <v>21</v>
+      </c>
+      <c r="K61">
+        <v>22</v>
+      </c>
+      <c r="L61">
+        <v>31</v>
+      </c>
+      <c r="M61">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>50</v>
+      </c>
+      <c r="B62" t="s">
+        <v>6</v>
+      </c>
+      <c r="C62" t="s">
+        <v>1</v>
+      </c>
+      <c r="D62" t="s">
+        <v>20</v>
+      </c>
+      <c r="E62" t="s">
+        <v>3</v>
+      </c>
+      <c r="F62" t="s">
+        <v>8</v>
+      </c>
+      <c r="G62" t="s">
+        <v>5</v>
+      </c>
+      <c r="H62">
+        <v>11</v>
+      </c>
+      <c r="I62">
+        <v>12</v>
+      </c>
+      <c r="J62">
+        <v>21</v>
+      </c>
+      <c r="K62">
+        <v>22</v>
+      </c>
+      <c r="L62">
+        <v>31</v>
+      </c>
+      <c r="M62">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>18</v>
+      </c>
+      <c r="B63" t="s">
+        <v>0</v>
+      </c>
+      <c r="C63" t="s">
+        <v>1</v>
+      </c>
+      <c r="D63" t="s">
+        <v>18</v>
+      </c>
+      <c r="E63" t="s">
+        <v>3</v>
+      </c>
+      <c r="F63" t="s">
+        <v>4</v>
+      </c>
+      <c r="G63" t="s">
+        <v>5</v>
+      </c>
+      <c r="H63">
+        <v>11</v>
+      </c>
+      <c r="I63">
+        <v>12</v>
+      </c>
+      <c r="J63">
+        <v>21</v>
+      </c>
+      <c r="K63">
+        <v>22</v>
+      </c>
+      <c r="L63">
+        <v>31</v>
+      </c>
+      <c r="M63">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>12</v>
+      </c>
+      <c r="B64" t="s">
+        <v>0</v>
+      </c>
+      <c r="C64" t="s">
+        <v>5</v>
+      </c>
+      <c r="D64" t="s">
+        <v>19</v>
+      </c>
+      <c r="E64" t="s">
+        <v>3</v>
+      </c>
+      <c r="F64" t="s">
+        <v>4</v>
+      </c>
+      <c r="G64" t="s">
+        <v>1</v>
+      </c>
+      <c r="H64">
+        <v>11</v>
+      </c>
+      <c r="I64">
+        <v>12</v>
+      </c>
+      <c r="J64">
+        <v>21</v>
+      </c>
+      <c r="K64">
+        <v>22</v>
+      </c>
+      <c r="L64">
+        <v>31</v>
+      </c>
+      <c r="M64">
         <v>32</v>
       </c>
     </row>

--- a/xls/incorrect/G2_TP_B.xlsx
+++ b/xls/incorrect/G2_TP_B.xlsx
@@ -420,23 +420,23 @@
   <dimension ref="A1:M64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
@@ -468,25 +468,25 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
         <v>3</v>
       </c>
       <c r="F2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G2" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H2">
         <v>11</v>
@@ -509,7 +509,7 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="B3" t="s">
         <v>0</v>
@@ -518,13 +518,13 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E3" t="s">
         <v>3</v>
       </c>
       <c r="F3" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G3" t="s">
         <v>5</v>
@@ -550,16 +550,16 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E4" t="s">
         <v>3</v>
@@ -568,7 +568,7 @@
         <v>8</v>
       </c>
       <c r="G4" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H4">
         <v>11</v>
@@ -591,16 +591,16 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="E5" t="s">
         <v>3</v>
@@ -609,7 +609,7 @@
         <v>8</v>
       </c>
       <c r="G5" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H5">
         <v>11</v>
@@ -632,7 +632,7 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
         <v>0</v>
@@ -641,13 +641,13 @@
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E6" t="s">
         <v>3</v>
       </c>
       <c r="F6" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G6" t="s">
         <v>5</v>
@@ -673,16 +673,16 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E7" t="s">
         <v>3</v>
@@ -691,7 +691,7 @@
         <v>8</v>
       </c>
       <c r="G7" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H7">
         <v>11</v>
@@ -714,22 +714,22 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C8" t="s">
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E8" t="s">
         <v>3</v>
       </c>
       <c r="F8" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G8" t="s">
         <v>5</v>
@@ -755,25 +755,25 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B9" t="s">
         <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E9" t="s">
         <v>3</v>
       </c>
       <c r="F9" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G9" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H9">
         <v>11</v>
@@ -796,7 +796,7 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
@@ -805,7 +805,7 @@
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E10" t="s">
         <v>3</v>
@@ -837,16 +837,16 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="B11" t="s">
         <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="E11" t="s">
         <v>3</v>
@@ -855,7 +855,7 @@
         <v>4</v>
       </c>
       <c r="G11" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H11">
         <v>11</v>
@@ -878,16 +878,16 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="B12" t="s">
         <v>0</v>
       </c>
       <c r="C12" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E12" t="s">
         <v>3</v>
@@ -896,7 +896,7 @@
         <v>4</v>
       </c>
       <c r="G12" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H12">
         <v>11</v>
@@ -919,16 +919,16 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="B13" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C13" t="s">
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E13" t="s">
         <v>3</v>
@@ -960,22 +960,22 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C14" t="s">
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="E14" t="s">
         <v>3</v>
       </c>
       <c r="F14" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G14" t="s">
         <v>5</v>
@@ -1001,25 +1001,25 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="B15" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C15" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D15" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E15" t="s">
         <v>3</v>
       </c>
       <c r="F15" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G15" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H15">
         <v>11</v>
@@ -1042,7 +1042,7 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B16" t="s">
         <v>6</v>
@@ -1051,13 +1051,13 @@
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="E16" t="s">
         <v>3</v>
       </c>
       <c r="F16" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G16" t="s">
         <v>5</v>
@@ -1083,7 +1083,7 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="B17" t="s">
         <v>6</v>
@@ -1092,7 +1092,7 @@
         <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E17" t="s">
         <v>3</v>
@@ -1124,25 +1124,25 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="B18" t="s">
         <v>6</v>
       </c>
       <c r="C18" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D18" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
         <v>3</v>
       </c>
       <c r="F18" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G18" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H18">
         <v>11</v>
@@ -1165,22 +1165,22 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C19" t="s">
         <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E19" t="s">
         <v>3</v>
       </c>
       <c r="F19" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G19" t="s">
         <v>5</v>
@@ -1206,16 +1206,16 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="B20" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C20" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E20" t="s">
         <v>3</v>
@@ -1224,7 +1224,7 @@
         <v>8</v>
       </c>
       <c r="G20" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H20">
         <v>11</v>
@@ -1253,7 +1253,7 @@
         <v>6</v>
       </c>
       <c r="C21" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D21" t="s">
         <v>11</v>
@@ -1262,10 +1262,10 @@
         <v>3</v>
       </c>
       <c r="F21" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G21" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H21">
         <v>11</v>
@@ -1288,22 +1288,22 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="B22" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C22" t="s">
         <v>1</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="E22" t="s">
         <v>3</v>
       </c>
       <c r="F22" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G22" t="s">
         <v>5</v>
@@ -1329,7 +1329,7 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="B23" t="s">
         <v>0</v>
@@ -1338,13 +1338,13 @@
         <v>1</v>
       </c>
       <c r="D23" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E23" t="s">
         <v>3</v>
       </c>
       <c r="F23" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G23" t="s">
         <v>5</v>
@@ -1370,22 +1370,22 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="B24" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C24" t="s">
         <v>1</v>
       </c>
       <c r="D24" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E24" t="s">
         <v>3</v>
       </c>
       <c r="F24" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G24" t="s">
         <v>5</v>
@@ -1411,16 +1411,16 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="B25" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C25" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D25" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E25" t="s">
         <v>3</v>
@@ -1429,7 +1429,7 @@
         <v>4</v>
       </c>
       <c r="G25" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H25">
         <v>11</v>
@@ -1452,7 +1452,7 @@
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="B26" t="s">
         <v>0</v>
@@ -1461,7 +1461,7 @@
         <v>1</v>
       </c>
       <c r="D26" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="E26" t="s">
         <v>3</v>
@@ -1493,25 +1493,25 @@
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="B27" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C27" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D27" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E27" t="s">
         <v>3</v>
       </c>
       <c r="F27" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G27" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H27">
         <v>11</v>
@@ -1534,16 +1534,16 @@
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="B28" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C28" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D28" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E28" t="s">
         <v>3</v>
@@ -1552,7 +1552,7 @@
         <v>4</v>
       </c>
       <c r="G28" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H28">
         <v>11</v>
@@ -1575,25 +1575,25 @@
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B29" t="s">
         <v>0</v>
       </c>
       <c r="C29" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D29" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E29" t="s">
         <v>3</v>
       </c>
       <c r="F29" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G29" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H29">
         <v>11</v>
@@ -1616,16 +1616,16 @@
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C30" t="s">
         <v>1</v>
       </c>
       <c r="D30" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="E30" t="s">
         <v>3</v>
@@ -1657,25 +1657,25 @@
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="B31" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C31" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D31" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E31" t="s">
         <v>3</v>
       </c>
       <c r="F31" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G31" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H31">
         <v>11</v>
@@ -1698,22 +1698,22 @@
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B32" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C32" t="s">
         <v>1</v>
       </c>
       <c r="D32" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E32" t="s">
         <v>3</v>
       </c>
       <c r="F32" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G32" t="s">
         <v>5</v>
@@ -1780,25 +1780,25 @@
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B34" t="s">
         <v>0</v>
       </c>
       <c r="C34" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D34" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E34" t="s">
         <v>3</v>
       </c>
       <c r="F34" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G34" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H34">
         <v>11</v>
@@ -1821,7 +1821,7 @@
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="B35" t="s">
         <v>6</v>
@@ -1830,7 +1830,7 @@
         <v>1</v>
       </c>
       <c r="D35" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E35" t="s">
         <v>3</v>
@@ -1862,25 +1862,25 @@
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="B36" t="s">
         <v>6</v>
       </c>
       <c r="C36" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D36" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E36" t="s">
         <v>3</v>
       </c>
       <c r="F36" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G36" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H36">
         <v>11</v>
@@ -1903,22 +1903,22 @@
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="B37" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C37" t="s">
         <v>1</v>
       </c>
       <c r="D37" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E37" t="s">
         <v>3</v>
       </c>
       <c r="F37" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G37" t="s">
         <v>5</v>
@@ -1944,22 +1944,22 @@
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="B38" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C38" t="s">
         <v>1</v>
       </c>
       <c r="D38" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="E38" t="s">
         <v>3</v>
       </c>
       <c r="F38" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G38" t="s">
         <v>5</v>
@@ -1985,25 +1985,25 @@
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="B39" t="s">
         <v>0</v>
       </c>
       <c r="C39" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D39" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E39" t="s">
         <v>3</v>
       </c>
       <c r="F39" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G39" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H39">
         <v>11</v>
@@ -2026,16 +2026,16 @@
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="B40" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C40" t="s">
         <v>1</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E40" t="s">
         <v>3</v>
@@ -2067,16 +2067,16 @@
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="B41" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C41" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D41" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E41" t="s">
         <v>3</v>
@@ -2085,7 +2085,7 @@
         <v>4</v>
       </c>
       <c r="G41" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H41">
         <v>11</v>
@@ -2108,25 +2108,25 @@
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="B42" t="s">
         <v>6</v>
       </c>
       <c r="C42" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D42" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
         <v>3</v>
       </c>
       <c r="F42" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G42" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H42">
         <v>11</v>
@@ -2149,25 +2149,25 @@
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>51</v>
+        <v>1</v>
       </c>
       <c r="B43" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C43" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E43" t="s">
         <v>3</v>
       </c>
       <c r="F43" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G43" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H43">
         <v>11</v>
@@ -2190,16 +2190,16 @@
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B44" t="s">
         <v>0</v>
       </c>
       <c r="C44" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D44" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E44" t="s">
         <v>3</v>
@@ -2208,7 +2208,7 @@
         <v>4</v>
       </c>
       <c r="G44" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H44">
         <v>11</v>
@@ -2231,7 +2231,7 @@
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="B45" t="s">
         <v>0</v>
@@ -2240,7 +2240,7 @@
         <v>1</v>
       </c>
       <c r="D45" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E45" t="s">
         <v>3</v>
@@ -2272,7 +2272,7 @@
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B46" t="s">
         <v>0</v>
@@ -2281,13 +2281,13 @@
         <v>1</v>
       </c>
       <c r="D46" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E46" t="s">
         <v>3</v>
       </c>
       <c r="F46" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G46" t="s">
         <v>5</v>
@@ -2313,16 +2313,16 @@
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="B47" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C47" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D47" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E47" t="s">
         <v>3</v>
@@ -2331,7 +2331,7 @@
         <v>8</v>
       </c>
       <c r="G47" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H47">
         <v>11</v>
@@ -2354,7 +2354,7 @@
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="B48" t="s">
         <v>6</v>
@@ -2363,7 +2363,7 @@
         <v>1</v>
       </c>
       <c r="D48" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E48" t="s">
         <v>3</v>
@@ -2395,16 +2395,16 @@
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="B49" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C49" t="s">
         <v>1</v>
       </c>
       <c r="D49" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="E49" t="s">
         <v>3</v>
@@ -2436,22 +2436,22 @@
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="B50" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C50" t="s">
         <v>1</v>
       </c>
       <c r="D50" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E50" t="s">
         <v>3</v>
       </c>
       <c r="F50" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G50" t="s">
         <v>5</v>
@@ -2477,16 +2477,16 @@
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="B51" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C51" t="s">
         <v>1</v>
       </c>
       <c r="D51" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E51" t="s">
         <v>3</v>
@@ -2559,17 +2559,17 @@
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53">
+        <v>51</v>
+      </c>
+      <c r="B53" t="s">
+        <v>6</v>
+      </c>
+      <c r="C53" t="s">
+        <v>1</v>
+      </c>
+      <c r="D53" t="s">
         <v>10</v>
       </c>
-      <c r="B53" t="s">
-        <v>0</v>
-      </c>
-      <c r="C53" t="s">
-        <v>5</v>
-      </c>
-      <c r="D53" t="s">
-        <v>16</v>
-      </c>
       <c r="E53" t="s">
         <v>3</v>
       </c>
@@ -2577,7 +2577,7 @@
         <v>4</v>
       </c>
       <c r="G53" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H53">
         <v>11</v>
@@ -2600,25 +2600,25 @@
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="B54" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C54" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E54" t="s">
         <v>3</v>
       </c>
       <c r="F54" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G54" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H54">
         <v>11</v>
@@ -2641,25 +2641,25 @@
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="B55" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C55" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D55" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E55" t="s">
         <v>3</v>
       </c>
       <c r="F55" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G55" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H55">
         <v>11</v>
@@ -2682,25 +2682,25 @@
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="B56" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C56" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D56" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E56" t="s">
         <v>3</v>
       </c>
       <c r="F56" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G56" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H56">
         <v>11</v>
@@ -2723,7 +2723,7 @@
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B57" t="s">
         <v>0</v>
@@ -2732,13 +2732,13 @@
         <v>1</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E57" t="s">
         <v>3</v>
       </c>
       <c r="F57" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G57" t="s">
         <v>5</v>
@@ -2764,7 +2764,7 @@
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B58" t="s">
         <v>0</v>
@@ -2773,13 +2773,13 @@
         <v>1</v>
       </c>
       <c r="D58" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="E58" t="s">
         <v>3</v>
       </c>
       <c r="F58" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G58" t="s">
         <v>5</v>
@@ -2805,25 +2805,25 @@
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="B59" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C59" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D59" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E59" t="s">
         <v>3</v>
       </c>
       <c r="F59" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G59" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H59">
         <v>11</v>
@@ -2846,25 +2846,25 @@
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="B60" t="s">
         <v>6</v>
       </c>
       <c r="C60" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D60" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E60" t="s">
         <v>3</v>
       </c>
       <c r="F60" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G60" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H60">
         <v>11</v>
@@ -2887,25 +2887,25 @@
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B61" t="s">
         <v>6</v>
       </c>
       <c r="C61" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D61" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E61" t="s">
         <v>3</v>
       </c>
       <c r="F61" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G61" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H61">
         <v>11</v>
@@ -2928,7 +2928,7 @@
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B62" t="s">
         <v>6</v>
@@ -2937,7 +2937,7 @@
         <v>1</v>
       </c>
       <c r="D62" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="E62" t="s">
         <v>3</v>
@@ -2969,22 +2969,22 @@
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="B63" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C63" t="s">
         <v>1</v>
       </c>
       <c r="D63" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E63" t="s">
         <v>3</v>
       </c>
       <c r="F63" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G63" t="s">
         <v>5</v>
@@ -3010,16 +3010,16 @@
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="B64" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C64" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D64" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E64" t="s">
         <v>3</v>
@@ -3028,7 +3028,7 @@
         <v>4</v>
       </c>
       <c r="G64" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H64">
         <v>11</v>

--- a/xls/incorrect/G2_TP_B.xlsx
+++ b/xls/incorrect/G2_TP_B.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="10050"/>
+    <workbookView xWindow="480" yWindow="75" windowWidth="14115" windowHeight="6735"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -16,18 +16,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="19">
+  <si>
+    <t>me</t>
+  </si>
+  <si>
+    <t>do</t>
+  </si>
   <si>
     <t>go</t>
+  </si>
+  <si>
+    <t>we</t>
   </si>
   <si>
     <t>lu</t>
   </si>
   <si>
-    <t>ti</t>
+    <t>si</t>
   </si>
   <si>
-    <t>we</t>
+    <t>za</t>
   </si>
   <si>
     <t>ta</t>
@@ -36,49 +45,34 @@
     <t>ki</t>
   </si>
   <si>
-    <t>si</t>
-  </si>
-  <si>
-    <t>na</t>
-  </si>
-  <si>
-    <t>me</t>
-  </si>
-  <si>
-    <t>la</t>
-  </si>
-  <si>
-    <t>pu</t>
-  </si>
-  <si>
-    <t>tu</t>
-  </si>
-  <si>
-    <t>ba</t>
-  </si>
-  <si>
-    <t>ko</t>
-  </si>
-  <si>
-    <t>hi</t>
-  </si>
-  <si>
-    <t>to</t>
-  </si>
-  <si>
-    <t>ka</t>
-  </si>
-  <si>
-    <t>no</t>
-  </si>
-  <si>
-    <t>nu</t>
+    <t>di</t>
   </si>
   <si>
     <t>ku</t>
   </si>
   <si>
     <t>po</t>
+  </si>
+  <si>
+    <t>hi</t>
+  </si>
+  <si>
+    <t>zo</t>
+  </si>
+  <si>
+    <t>pa</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>la</t>
+  </si>
+  <si>
+    <t>ba</t>
+  </si>
+  <si>
+    <t>su</t>
   </si>
 </sst>
 </file>
@@ -420,23 +414,23 @@
   <dimension ref="A1:M64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="H1" sqref="H1:M64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="B1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
@@ -445,654 +439,654 @@
         <v>4</v>
       </c>
       <c r="G1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H1">
-        <v>11</v>
+        <v>111</v>
       </c>
       <c r="I1">
-        <v>12</v>
+        <v>112</v>
       </c>
       <c r="J1">
-        <v>21</v>
+        <v>121</v>
       </c>
       <c r="K1">
-        <v>22</v>
+        <v>122</v>
       </c>
       <c r="L1">
-        <v>31</v>
+        <v>131</v>
       </c>
       <c r="M1">
-        <v>32</v>
+        <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
-        <v>1</v>
-      </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E2" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H2">
-        <v>11</v>
+        <v>111</v>
       </c>
       <c r="I2">
-        <v>12</v>
+        <v>112</v>
       </c>
       <c r="J2">
-        <v>21</v>
+        <v>121</v>
       </c>
       <c r="K2">
-        <v>22</v>
+        <v>122</v>
       </c>
       <c r="L2">
-        <v>31</v>
+        <v>131</v>
       </c>
       <c r="M2">
-        <v>32</v>
+        <v>132</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="B3" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E3" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G3" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H3">
-        <v>11</v>
+        <v>111</v>
       </c>
       <c r="I3">
-        <v>12</v>
+        <v>112</v>
       </c>
       <c r="J3">
-        <v>21</v>
+        <v>121</v>
       </c>
       <c r="K3">
-        <v>22</v>
+        <v>122</v>
       </c>
       <c r="L3">
-        <v>31</v>
+        <v>131</v>
       </c>
       <c r="M3">
-        <v>32</v>
+        <v>132</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F4" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G4" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>11</v>
+        <v>111</v>
       </c>
       <c r="I4">
-        <v>12</v>
+        <v>112</v>
       </c>
       <c r="J4">
-        <v>21</v>
+        <v>121</v>
       </c>
       <c r="K4">
-        <v>22</v>
+        <v>122</v>
       </c>
       <c r="L4">
-        <v>31</v>
+        <v>131</v>
       </c>
       <c r="M4">
-        <v>32</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>54</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H5">
-        <v>11</v>
+        <v>111</v>
       </c>
       <c r="I5">
-        <v>12</v>
+        <v>112</v>
       </c>
       <c r="J5">
-        <v>21</v>
+        <v>121</v>
       </c>
       <c r="K5">
-        <v>22</v>
+        <v>122</v>
       </c>
       <c r="L5">
-        <v>31</v>
+        <v>131</v>
       </c>
       <c r="M5">
-        <v>32</v>
+        <v>132</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="B6" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="E6" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F6" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G6" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H6">
-        <v>11</v>
+        <v>111</v>
       </c>
       <c r="I6">
-        <v>12</v>
+        <v>112</v>
       </c>
       <c r="J6">
-        <v>21</v>
+        <v>121</v>
       </c>
       <c r="K6">
-        <v>22</v>
+        <v>122</v>
       </c>
       <c r="L6">
-        <v>31</v>
+        <v>131</v>
       </c>
       <c r="M6">
-        <v>32</v>
+        <v>132</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="B7" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E7" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G7" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H7">
-        <v>11</v>
+        <v>111</v>
       </c>
       <c r="I7">
-        <v>12</v>
+        <v>112</v>
       </c>
       <c r="J7">
-        <v>21</v>
+        <v>121</v>
       </c>
       <c r="K7">
-        <v>22</v>
+        <v>122</v>
       </c>
       <c r="L7">
-        <v>31</v>
+        <v>131</v>
       </c>
       <c r="M7">
-        <v>32</v>
+        <v>132</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E8" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F8" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="G8" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H8">
-        <v>11</v>
+        <v>111</v>
       </c>
       <c r="I8">
-        <v>12</v>
+        <v>112</v>
       </c>
       <c r="J8">
-        <v>21</v>
+        <v>121</v>
       </c>
       <c r="K8">
-        <v>22</v>
+        <v>122</v>
       </c>
       <c r="L8">
-        <v>31</v>
+        <v>131</v>
       </c>
       <c r="M8">
-        <v>32</v>
+        <v>132</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B9" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D9" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="F9" t="s">
         <v>8</v>
       </c>
       <c r="G9" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H9">
-        <v>11</v>
+        <v>111</v>
       </c>
       <c r="I9">
-        <v>12</v>
+        <v>112</v>
       </c>
       <c r="J9">
-        <v>21</v>
+        <v>121</v>
       </c>
       <c r="K9">
-        <v>22</v>
+        <v>122</v>
       </c>
       <c r="L9">
-        <v>31</v>
+        <v>131</v>
       </c>
       <c r="M9">
-        <v>32</v>
+        <v>132</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="E10" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F10" t="s">
         <v>8</v>
       </c>
       <c r="G10" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="H10">
-        <v>11</v>
+        <v>111</v>
       </c>
       <c r="I10">
-        <v>12</v>
+        <v>112</v>
       </c>
       <c r="J10">
-        <v>21</v>
+        <v>121</v>
       </c>
       <c r="K10">
-        <v>22</v>
+        <v>122</v>
       </c>
       <c r="L10">
-        <v>31</v>
+        <v>131</v>
       </c>
       <c r="M10">
-        <v>32</v>
+        <v>132</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="B11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11" t="s">
+        <v>3</v>
+      </c>
+      <c r="F11" t="s">
         <v>0</v>
       </c>
-      <c r="C11" t="s">
-        <v>1</v>
-      </c>
-      <c r="D11" t="s">
-        <v>2</v>
-      </c>
-      <c r="E11" t="s">
-        <v>3</v>
-      </c>
-      <c r="F11" t="s">
-        <v>4</v>
-      </c>
       <c r="G11" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H11">
-        <v>11</v>
+        <v>111</v>
       </c>
       <c r="I11">
-        <v>12</v>
+        <v>112</v>
       </c>
       <c r="J11">
-        <v>21</v>
+        <v>121</v>
       </c>
       <c r="K11">
-        <v>22</v>
+        <v>122</v>
       </c>
       <c r="L11">
-        <v>31</v>
+        <v>131</v>
       </c>
       <c r="M11">
-        <v>32</v>
+        <v>132</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C12" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" t="s">
+        <v>3</v>
+      </c>
+      <c r="F12" t="s">
+        <v>2</v>
+      </c>
+      <c r="G12" t="s">
         <v>12</v>
       </c>
-      <c r="E12" t="s">
-        <v>3</v>
-      </c>
-      <c r="F12" t="s">
-        <v>4</v>
-      </c>
-      <c r="G12" t="s">
-        <v>5</v>
-      </c>
       <c r="H12">
-        <v>11</v>
+        <v>111</v>
       </c>
       <c r="I12">
-        <v>12</v>
+        <v>112</v>
       </c>
       <c r="J12">
-        <v>21</v>
+        <v>121</v>
       </c>
       <c r="K12">
-        <v>22</v>
+        <v>122</v>
       </c>
       <c r="L12">
-        <v>31</v>
+        <v>131</v>
       </c>
       <c r="M12">
-        <v>32</v>
+        <v>132</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D13" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="E13" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F13" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="G13" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H13">
-        <v>11</v>
+        <v>111</v>
       </c>
       <c r="I13">
-        <v>12</v>
+        <v>112</v>
       </c>
       <c r="J13">
-        <v>21</v>
+        <v>121</v>
       </c>
       <c r="K13">
-        <v>22</v>
+        <v>122</v>
       </c>
       <c r="L13">
-        <v>31</v>
+        <v>131</v>
       </c>
       <c r="M13">
-        <v>32</v>
+        <v>132</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="B14" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C14" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E14" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F14" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G14" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H14">
-        <v>11</v>
+        <v>111</v>
       </c>
       <c r="I14">
-        <v>12</v>
+        <v>112</v>
       </c>
       <c r="J14">
-        <v>21</v>
+        <v>121</v>
       </c>
       <c r="K14">
-        <v>22</v>
+        <v>122</v>
       </c>
       <c r="L14">
-        <v>31</v>
+        <v>131</v>
       </c>
       <c r="M14">
-        <v>32</v>
+        <v>132</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C15" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D15" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E15" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G15" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H15">
-        <v>11</v>
+        <v>111</v>
       </c>
       <c r="I15">
-        <v>12</v>
+        <v>112</v>
       </c>
       <c r="J15">
-        <v>21</v>
+        <v>121</v>
       </c>
       <c r="K15">
-        <v>22</v>
+        <v>122</v>
       </c>
       <c r="L15">
-        <v>31</v>
+        <v>131</v>
       </c>
       <c r="M15">
-        <v>32</v>
+        <v>132</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="B16" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C16" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E16" t="s">
         <v>3</v>
       </c>
       <c r="F16" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G16" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H16">
-        <v>11</v>
+        <v>111</v>
       </c>
       <c r="I16">
-        <v>12</v>
+        <v>112</v>
       </c>
       <c r="J16">
-        <v>21</v>
+        <v>121</v>
       </c>
       <c r="K16">
-        <v>22</v>
+        <v>122</v>
       </c>
       <c r="L16">
-        <v>31</v>
+        <v>131</v>
       </c>
       <c r="M16">
-        <v>32</v>
+        <v>132</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="B17" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C17" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D17" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E17" t="s">
         <v>3</v>
@@ -1101,736 +1095,736 @@
         <v>8</v>
       </c>
       <c r="G17" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H17">
-        <v>11</v>
+        <v>111</v>
       </c>
       <c r="I17">
-        <v>12</v>
+        <v>112</v>
       </c>
       <c r="J17">
-        <v>21</v>
+        <v>121</v>
       </c>
       <c r="K17">
-        <v>22</v>
+        <v>122</v>
       </c>
       <c r="L17">
-        <v>31</v>
+        <v>131</v>
       </c>
       <c r="M17">
-        <v>32</v>
+        <v>132</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>51</v>
+        <v>3</v>
       </c>
       <c r="B18" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C18" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E18" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F18" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="G18" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H18">
-        <v>11</v>
+        <v>111</v>
       </c>
       <c r="I18">
-        <v>12</v>
+        <v>112</v>
       </c>
       <c r="J18">
-        <v>21</v>
+        <v>121</v>
       </c>
       <c r="K18">
-        <v>22</v>
+        <v>122</v>
       </c>
       <c r="L18">
-        <v>31</v>
+        <v>131</v>
       </c>
       <c r="M18">
-        <v>32</v>
+        <v>132</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="B19" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="C19" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D19" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="E19" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F19" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G19" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="H19">
-        <v>11</v>
+        <v>111</v>
       </c>
       <c r="I19">
-        <v>12</v>
+        <v>112</v>
       </c>
       <c r="J19">
-        <v>21</v>
+        <v>121</v>
       </c>
       <c r="K19">
-        <v>22</v>
+        <v>122</v>
       </c>
       <c r="L19">
-        <v>31</v>
+        <v>131</v>
       </c>
       <c r="M19">
-        <v>32</v>
+        <v>132</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="B20" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C20" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D20" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="E20" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F20" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G20" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H20">
-        <v>11</v>
+        <v>111</v>
       </c>
       <c r="I20">
-        <v>12</v>
+        <v>112</v>
       </c>
       <c r="J20">
-        <v>21</v>
+        <v>121</v>
       </c>
       <c r="K20">
-        <v>22</v>
+        <v>122</v>
       </c>
       <c r="L20">
-        <v>31</v>
+        <v>131</v>
       </c>
       <c r="M20">
-        <v>32</v>
+        <v>132</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="B21" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C21" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D21" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E21" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="F21" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G21" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H21">
-        <v>11</v>
+        <v>111</v>
       </c>
       <c r="I21">
-        <v>12</v>
+        <v>112</v>
       </c>
       <c r="J21">
-        <v>21</v>
+        <v>121</v>
       </c>
       <c r="K21">
-        <v>22</v>
+        <v>122</v>
       </c>
       <c r="L21">
-        <v>31</v>
+        <v>131</v>
       </c>
       <c r="M21">
-        <v>32</v>
+        <v>132</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="B22" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C22" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E22" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F22" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G22" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H22">
-        <v>11</v>
+        <v>111</v>
       </c>
       <c r="I22">
-        <v>12</v>
+        <v>112</v>
       </c>
       <c r="J22">
-        <v>21</v>
+        <v>121</v>
       </c>
       <c r="K22">
-        <v>22</v>
+        <v>122</v>
       </c>
       <c r="L22">
-        <v>31</v>
+        <v>131</v>
       </c>
       <c r="M22">
-        <v>32</v>
+        <v>132</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B23" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" t="s">
+        <v>3</v>
+      </c>
+      <c r="E23" t="s">
         <v>0</v>
       </c>
-      <c r="C23" t="s">
-        <v>1</v>
-      </c>
-      <c r="D23" t="s">
+      <c r="F23" t="s">
         <v>16</v>
       </c>
-      <c r="E23" t="s">
-        <v>3</v>
-      </c>
-      <c r="F23" t="s">
-        <v>8</v>
-      </c>
       <c r="G23" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H23">
-        <v>11</v>
+        <v>111</v>
       </c>
       <c r="I23">
-        <v>12</v>
+        <v>112</v>
       </c>
       <c r="J23">
-        <v>21</v>
+        <v>121</v>
       </c>
       <c r="K23">
-        <v>22</v>
+        <v>122</v>
       </c>
       <c r="L23">
-        <v>31</v>
+        <v>131</v>
       </c>
       <c r="M23">
-        <v>32</v>
+        <v>132</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="B24" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C24" t="s">
         <v>1</v>
       </c>
       <c r="D24" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="E24" t="s">
         <v>3</v>
       </c>
       <c r="F24" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G24" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H24">
-        <v>11</v>
+        <v>111</v>
       </c>
       <c r="I24">
-        <v>12</v>
+        <v>112</v>
       </c>
       <c r="J24">
-        <v>21</v>
+        <v>121</v>
       </c>
       <c r="K24">
-        <v>22</v>
+        <v>122</v>
       </c>
       <c r="L24">
-        <v>31</v>
+        <v>131</v>
       </c>
       <c r="M24">
-        <v>32</v>
+        <v>132</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="B25" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C25" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D25" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="E25" t="s">
         <v>3</v>
       </c>
       <c r="F25" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H25">
-        <v>11</v>
+        <v>111</v>
       </c>
       <c r="I25">
-        <v>12</v>
+        <v>112</v>
       </c>
       <c r="J25">
-        <v>21</v>
+        <v>121</v>
       </c>
       <c r="K25">
-        <v>22</v>
+        <v>122</v>
       </c>
       <c r="L25">
-        <v>31</v>
+        <v>131</v>
       </c>
       <c r="M25">
-        <v>32</v>
+        <v>132</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="B26" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C26" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="E26" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F26" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G26" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H26">
-        <v>11</v>
+        <v>111</v>
       </c>
       <c r="I26">
-        <v>12</v>
+        <v>112</v>
       </c>
       <c r="J26">
-        <v>21</v>
+        <v>121</v>
       </c>
       <c r="K26">
-        <v>22</v>
+        <v>122</v>
       </c>
       <c r="L26">
-        <v>31</v>
+        <v>131</v>
       </c>
       <c r="M26">
-        <v>32</v>
+        <v>132</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="B27" t="s">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="C27" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E27" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F27" t="s">
         <v>4</v>
       </c>
       <c r="G27" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H27">
-        <v>11</v>
+        <v>111</v>
       </c>
       <c r="I27">
-        <v>12</v>
+        <v>112</v>
       </c>
       <c r="J27">
-        <v>21</v>
+        <v>121</v>
       </c>
       <c r="K27">
-        <v>22</v>
+        <v>122</v>
       </c>
       <c r="L27">
-        <v>31</v>
+        <v>131</v>
       </c>
       <c r="M27">
-        <v>32</v>
+        <v>132</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B28" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C28" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D28" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E28" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F28" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G28" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H28">
-        <v>11</v>
+        <v>111</v>
       </c>
       <c r="I28">
-        <v>12</v>
+        <v>112</v>
       </c>
       <c r="J28">
-        <v>21</v>
+        <v>121</v>
       </c>
       <c r="K28">
-        <v>22</v>
+        <v>122</v>
       </c>
       <c r="L28">
-        <v>31</v>
+        <v>131</v>
       </c>
       <c r="M28">
-        <v>32</v>
+        <v>132</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="B29" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C29" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D29" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="E29" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F29" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G29" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H29">
-        <v>11</v>
+        <v>111</v>
       </c>
       <c r="I29">
-        <v>12</v>
+        <v>112</v>
       </c>
       <c r="J29">
-        <v>21</v>
+        <v>121</v>
       </c>
       <c r="K29">
-        <v>22</v>
+        <v>122</v>
       </c>
       <c r="L29">
-        <v>31</v>
+        <v>131</v>
       </c>
       <c r="M29">
-        <v>32</v>
+        <v>132</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="B30" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C30" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D30" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E30" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F30" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G30" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H30">
-        <v>11</v>
+        <v>111</v>
       </c>
       <c r="I30">
-        <v>12</v>
+        <v>112</v>
       </c>
       <c r="J30">
-        <v>21</v>
+        <v>121</v>
       </c>
       <c r="K30">
-        <v>22</v>
+        <v>122</v>
       </c>
       <c r="L30">
-        <v>31</v>
+        <v>131</v>
       </c>
       <c r="M30">
-        <v>32</v>
+        <v>132</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>54</v>
+        <v>7</v>
       </c>
       <c r="B31" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C31" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D31" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E31" t="s">
         <v>3</v>
       </c>
       <c r="F31" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G31" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="H31">
-        <v>11</v>
+        <v>111</v>
       </c>
       <c r="I31">
-        <v>12</v>
+        <v>112</v>
       </c>
       <c r="J31">
-        <v>21</v>
+        <v>121</v>
       </c>
       <c r="K31">
-        <v>22</v>
+        <v>122</v>
       </c>
       <c r="L31">
-        <v>31</v>
+        <v>131</v>
       </c>
       <c r="M31">
-        <v>32</v>
+        <v>132</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>26</v>
+        <v>56</v>
       </c>
       <c r="B32" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C32" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D32" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E32" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F32" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G32" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H32">
-        <v>11</v>
+        <v>111</v>
       </c>
       <c r="I32">
-        <v>12</v>
+        <v>112</v>
       </c>
       <c r="J32">
-        <v>21</v>
+        <v>121</v>
       </c>
       <c r="K32">
-        <v>22</v>
+        <v>122</v>
       </c>
       <c r="L32">
-        <v>31</v>
+        <v>131</v>
       </c>
       <c r="M32">
-        <v>32</v>
+        <v>132</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B33" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C33" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D33" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E33" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F33" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G33" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H33">
-        <v>11</v>
+        <v>111</v>
       </c>
       <c r="I33">
-        <v>12</v>
+        <v>112</v>
       </c>
       <c r="J33">
-        <v>21</v>
+        <v>121</v>
       </c>
       <c r="K33">
-        <v>22</v>
+        <v>122</v>
       </c>
       <c r="L33">
-        <v>31</v>
+        <v>131</v>
       </c>
       <c r="M33">
-        <v>32</v>
+        <v>132</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="B34" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C34" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D34" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="E34" t="s">
         <v>3</v>
       </c>
       <c r="F34" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G34" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="H34">
-        <v>11</v>
+        <v>111</v>
       </c>
       <c r="I34">
-        <v>12</v>
+        <v>112</v>
       </c>
       <c r="J34">
-        <v>21</v>
+        <v>121</v>
       </c>
       <c r="K34">
-        <v>22</v>
+        <v>122</v>
       </c>
       <c r="L34">
-        <v>31</v>
+        <v>131</v>
       </c>
       <c r="M34">
-        <v>32</v>
+        <v>132</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="B35" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C35" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D35" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E35" t="s">
         <v>3</v>
@@ -1839,358 +1833,358 @@
         <v>8</v>
       </c>
       <c r="G35" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H35">
-        <v>11</v>
+        <v>111</v>
       </c>
       <c r="I35">
-        <v>12</v>
+        <v>112</v>
       </c>
       <c r="J35">
-        <v>21</v>
+        <v>121</v>
       </c>
       <c r="K35">
-        <v>22</v>
+        <v>122</v>
       </c>
       <c r="L35">
-        <v>31</v>
+        <v>131</v>
       </c>
       <c r="M35">
-        <v>32</v>
+        <v>132</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="B36" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C36" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D36" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="E36" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F36" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="G36" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H36">
-        <v>11</v>
+        <v>111</v>
       </c>
       <c r="I36">
-        <v>12</v>
+        <v>112</v>
       </c>
       <c r="J36">
-        <v>21</v>
+        <v>121</v>
       </c>
       <c r="K36">
-        <v>22</v>
+        <v>122</v>
       </c>
       <c r="L36">
-        <v>31</v>
+        <v>131</v>
       </c>
       <c r="M36">
-        <v>32</v>
+        <v>132</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="B37" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C37" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D37" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="E37" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="F37" t="s">
         <v>8</v>
       </c>
       <c r="G37" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H37">
-        <v>11</v>
+        <v>111</v>
       </c>
       <c r="I37">
-        <v>12</v>
+        <v>112</v>
       </c>
       <c r="J37">
-        <v>21</v>
+        <v>121</v>
       </c>
       <c r="K37">
-        <v>22</v>
+        <v>122</v>
       </c>
       <c r="L37">
-        <v>31</v>
+        <v>131</v>
       </c>
       <c r="M37">
-        <v>32</v>
+        <v>132</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>26</v>
+        <v>56</v>
       </c>
       <c r="B38" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C38" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D38" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E38" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F38" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G38" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H38">
-        <v>11</v>
+        <v>111</v>
       </c>
       <c r="I38">
-        <v>12</v>
+        <v>112</v>
       </c>
       <c r="J38">
-        <v>21</v>
+        <v>121</v>
       </c>
       <c r="K38">
-        <v>22</v>
+        <v>122</v>
       </c>
       <c r="L38">
-        <v>31</v>
+        <v>131</v>
       </c>
       <c r="M38">
-        <v>32</v>
+        <v>132</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="B39" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C39" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E39" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F39" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G39" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H39">
-        <v>11</v>
+        <v>111</v>
       </c>
       <c r="I39">
-        <v>12</v>
+        <v>112</v>
       </c>
       <c r="J39">
-        <v>21</v>
+        <v>121</v>
       </c>
       <c r="K39">
-        <v>22</v>
+        <v>122</v>
       </c>
       <c r="L39">
-        <v>31</v>
+        <v>131</v>
       </c>
       <c r="M39">
-        <v>32</v>
+        <v>132</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="B40" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C40" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D40" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E40" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F40" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G40" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H40">
-        <v>11</v>
+        <v>111</v>
       </c>
       <c r="I40">
-        <v>12</v>
+        <v>112</v>
       </c>
       <c r="J40">
-        <v>21</v>
+        <v>121</v>
       </c>
       <c r="K40">
-        <v>22</v>
+        <v>122</v>
       </c>
       <c r="L40">
-        <v>31</v>
+        <v>131</v>
       </c>
       <c r="M40">
-        <v>32</v>
+        <v>132</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>44</v>
+        <v>6</v>
       </c>
       <c r="B41" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C41" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E41" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F41" t="s">
         <v>4</v>
       </c>
       <c r="G41" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H41">
-        <v>11</v>
+        <v>111</v>
       </c>
       <c r="I41">
-        <v>12</v>
+        <v>112</v>
       </c>
       <c r="J41">
-        <v>21</v>
+        <v>121</v>
       </c>
       <c r="K41">
-        <v>22</v>
+        <v>122</v>
       </c>
       <c r="L41">
-        <v>31</v>
+        <v>131</v>
       </c>
       <c r="M41">
-        <v>32</v>
+        <v>132</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B42" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C42" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E42" t="s">
         <v>3</v>
       </c>
       <c r="F42" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G42" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H42">
-        <v>11</v>
+        <v>111</v>
       </c>
       <c r="I42">
-        <v>12</v>
+        <v>112</v>
       </c>
       <c r="J42">
-        <v>21</v>
+        <v>121</v>
       </c>
       <c r="K42">
-        <v>22</v>
+        <v>122</v>
       </c>
       <c r="L42">
-        <v>31</v>
+        <v>131</v>
       </c>
       <c r="M42">
-        <v>32</v>
+        <v>132</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="B43" t="s">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="C43" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D43" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E43" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F43" t="s">
         <v>4</v>
       </c>
       <c r="G43" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H43">
-        <v>11</v>
+        <v>111</v>
       </c>
       <c r="I43">
-        <v>12</v>
+        <v>112</v>
       </c>
       <c r="J43">
-        <v>21</v>
+        <v>121</v>
       </c>
       <c r="K43">
-        <v>22</v>
+        <v>122</v>
       </c>
       <c r="L43">
-        <v>31</v>
+        <v>131</v>
       </c>
       <c r="M43">
-        <v>32</v>
+        <v>132</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B44" t="s">
         <v>0</v>
@@ -2199,7 +2193,7 @@
         <v>1</v>
       </c>
       <c r="D44" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="E44" t="s">
         <v>3</v>
@@ -2208,440 +2202,440 @@
         <v>4</v>
       </c>
       <c r="G44" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H44">
-        <v>11</v>
+        <v>111</v>
       </c>
       <c r="I44">
-        <v>12</v>
+        <v>112</v>
       </c>
       <c r="J44">
-        <v>21</v>
+        <v>121</v>
       </c>
       <c r="K44">
-        <v>22</v>
+        <v>122</v>
       </c>
       <c r="L44">
-        <v>31</v>
+        <v>131</v>
       </c>
       <c r="M44">
-        <v>32</v>
+        <v>132</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B45" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C45" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E45" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F45" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G45" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H45">
-        <v>11</v>
+        <v>111</v>
       </c>
       <c r="I45">
-        <v>12</v>
+        <v>112</v>
       </c>
       <c r="J45">
-        <v>21</v>
+        <v>121</v>
       </c>
       <c r="K45">
-        <v>22</v>
+        <v>122</v>
       </c>
       <c r="L45">
-        <v>31</v>
+        <v>131</v>
       </c>
       <c r="M45">
-        <v>32</v>
+        <v>132</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46">
+        <v>3</v>
+      </c>
+      <c r="B46" t="s">
+        <v>11</v>
+      </c>
+      <c r="C46" t="s">
+        <v>4</v>
+      </c>
+      <c r="D46" t="s">
+        <v>5</v>
+      </c>
+      <c r="E46" t="s">
+        <v>8</v>
+      </c>
+      <c r="F46" t="s">
         <v>12</v>
       </c>
-      <c r="B46" t="s">
-        <v>0</v>
-      </c>
-      <c r="C46" t="s">
-        <v>1</v>
-      </c>
-      <c r="D46" t="s">
-        <v>19</v>
-      </c>
-      <c r="E46" t="s">
-        <v>3</v>
-      </c>
-      <c r="F46" t="s">
-        <v>8</v>
-      </c>
       <c r="G46" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H46">
-        <v>11</v>
+        <v>111</v>
       </c>
       <c r="I46">
-        <v>12</v>
+        <v>112</v>
       </c>
       <c r="J46">
-        <v>21</v>
+        <v>121</v>
       </c>
       <c r="K46">
-        <v>22</v>
+        <v>122</v>
       </c>
       <c r="L46">
-        <v>31</v>
+        <v>131</v>
       </c>
       <c r="M46">
-        <v>32</v>
+        <v>132</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B47" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="C47" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D47" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E47" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F47" t="s">
         <v>8</v>
       </c>
       <c r="G47" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="H47">
-        <v>11</v>
+        <v>111</v>
       </c>
       <c r="I47">
-        <v>12</v>
+        <v>112</v>
       </c>
       <c r="J47">
-        <v>21</v>
+        <v>121</v>
       </c>
       <c r="K47">
-        <v>22</v>
+        <v>122</v>
       </c>
       <c r="L47">
-        <v>31</v>
+        <v>131</v>
       </c>
       <c r="M47">
-        <v>32</v>
+        <v>132</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="B48" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C48" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D48" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="E48" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F48" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G48" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H48">
-        <v>11</v>
+        <v>111</v>
       </c>
       <c r="I48">
-        <v>12</v>
+        <v>112</v>
       </c>
       <c r="J48">
-        <v>21</v>
+        <v>121</v>
       </c>
       <c r="K48">
-        <v>22</v>
+        <v>122</v>
       </c>
       <c r="L48">
-        <v>31</v>
+        <v>131</v>
       </c>
       <c r="M48">
-        <v>32</v>
+        <v>132</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="B49" t="s">
+        <v>3</v>
+      </c>
+      <c r="C49" t="s">
+        <v>4</v>
+      </c>
+      <c r="D49" t="s">
+        <v>4</v>
+      </c>
+      <c r="E49" t="s">
+        <v>3</v>
+      </c>
+      <c r="F49" t="s">
         <v>0</v>
       </c>
-      <c r="C49" t="s">
-        <v>1</v>
-      </c>
-      <c r="D49" t="s">
-        <v>17</v>
-      </c>
-      <c r="E49" t="s">
-        <v>3</v>
-      </c>
-      <c r="F49" t="s">
-        <v>8</v>
-      </c>
       <c r="G49" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H49">
-        <v>11</v>
+        <v>111</v>
       </c>
       <c r="I49">
-        <v>12</v>
+        <v>112</v>
       </c>
       <c r="J49">
-        <v>21</v>
+        <v>121</v>
       </c>
       <c r="K49">
-        <v>22</v>
+        <v>122</v>
       </c>
       <c r="L49">
-        <v>31</v>
+        <v>131</v>
       </c>
       <c r="M49">
-        <v>32</v>
+        <v>132</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50">
+        <v>18</v>
+      </c>
+      <c r="B50" t="s">
+        <v>2</v>
+      </c>
+      <c r="C50" t="s">
+        <v>3</v>
+      </c>
+      <c r="D50" t="s">
+        <v>8</v>
+      </c>
+      <c r="E50" t="s">
         <v>13</v>
       </c>
-      <c r="B50" t="s">
-        <v>0</v>
-      </c>
-      <c r="C50" t="s">
-        <v>1</v>
-      </c>
-      <c r="D50" t="s">
-        <v>9</v>
-      </c>
-      <c r="E50" t="s">
-        <v>3</v>
-      </c>
       <c r="F50" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G50" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H50">
-        <v>11</v>
+        <v>111</v>
       </c>
       <c r="I50">
-        <v>12</v>
+        <v>112</v>
       </c>
       <c r="J50">
-        <v>21</v>
+        <v>121</v>
       </c>
       <c r="K50">
-        <v>22</v>
+        <v>122</v>
       </c>
       <c r="L50">
-        <v>31</v>
+        <v>131</v>
       </c>
       <c r="M50">
-        <v>32</v>
+        <v>132</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C51" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D51" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="E51" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F51" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G51" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H51">
-        <v>11</v>
+        <v>111</v>
       </c>
       <c r="I51">
-        <v>12</v>
+        <v>112</v>
       </c>
       <c r="J51">
-        <v>21</v>
+        <v>121</v>
       </c>
       <c r="K51">
-        <v>22</v>
+        <v>122</v>
       </c>
       <c r="L51">
-        <v>31</v>
+        <v>131</v>
       </c>
       <c r="M51">
-        <v>32</v>
+        <v>132</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B52" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C52" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E52" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F52" t="s">
         <v>4</v>
       </c>
       <c r="G52" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H52">
-        <v>11</v>
+        <v>111</v>
       </c>
       <c r="I52">
-        <v>12</v>
+        <v>112</v>
       </c>
       <c r="J52">
-        <v>21</v>
+        <v>121</v>
       </c>
       <c r="K52">
-        <v>22</v>
+        <v>122</v>
       </c>
       <c r="L52">
-        <v>31</v>
+        <v>131</v>
       </c>
       <c r="M52">
-        <v>32</v>
+        <v>132</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B53" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C53" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E53" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F53" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G53" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H53">
-        <v>11</v>
+        <v>111</v>
       </c>
       <c r="I53">
-        <v>12</v>
+        <v>112</v>
       </c>
       <c r="J53">
-        <v>21</v>
+        <v>121</v>
       </c>
       <c r="K53">
-        <v>22</v>
+        <v>122</v>
       </c>
       <c r="L53">
-        <v>31</v>
+        <v>131</v>
       </c>
       <c r="M53">
-        <v>32</v>
+        <v>132</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="B54" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="C54" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D54" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E54" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F54" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G54" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="H54">
-        <v>11</v>
+        <v>111</v>
       </c>
       <c r="I54">
-        <v>12</v>
+        <v>112</v>
       </c>
       <c r="J54">
-        <v>21</v>
+        <v>121</v>
       </c>
       <c r="K54">
-        <v>22</v>
+        <v>122</v>
       </c>
       <c r="L54">
-        <v>31</v>
+        <v>131</v>
       </c>
       <c r="M54">
-        <v>32</v>
+        <v>132</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B55" t="s">
         <v>0</v>
@@ -2650,7 +2644,7 @@
         <v>1</v>
       </c>
       <c r="D55" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="E55" t="s">
         <v>3</v>
@@ -2659,394 +2653,394 @@
         <v>4</v>
       </c>
       <c r="G55" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H55">
-        <v>11</v>
+        <v>111</v>
       </c>
       <c r="I55">
-        <v>12</v>
+        <v>112</v>
       </c>
       <c r="J55">
-        <v>21</v>
+        <v>121</v>
       </c>
       <c r="K55">
-        <v>22</v>
+        <v>122</v>
       </c>
       <c r="L55">
-        <v>31</v>
+        <v>131</v>
       </c>
       <c r="M55">
-        <v>32</v>
+        <v>132</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="B56" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C56" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D56" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E56" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F56" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G56" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H56">
-        <v>11</v>
+        <v>111</v>
       </c>
       <c r="I56">
-        <v>12</v>
+        <v>112</v>
       </c>
       <c r="J56">
-        <v>21</v>
+        <v>121</v>
       </c>
       <c r="K56">
-        <v>22</v>
+        <v>122</v>
       </c>
       <c r="L56">
-        <v>31</v>
+        <v>131</v>
       </c>
       <c r="M56">
-        <v>32</v>
+        <v>132</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B57" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C57" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D57" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E57" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F57" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G57" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H57">
-        <v>11</v>
+        <v>111</v>
       </c>
       <c r="I57">
-        <v>12</v>
+        <v>112</v>
       </c>
       <c r="J57">
-        <v>21</v>
+        <v>121</v>
       </c>
       <c r="K57">
-        <v>22</v>
+        <v>122</v>
       </c>
       <c r="L57">
-        <v>31</v>
+        <v>131</v>
       </c>
       <c r="M57">
-        <v>32</v>
+        <v>132</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="B58" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C58" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D58" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="E58" t="s">
         <v>3</v>
       </c>
       <c r="F58" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G58" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="H58">
-        <v>11</v>
+        <v>111</v>
       </c>
       <c r="I58">
-        <v>12</v>
+        <v>112</v>
       </c>
       <c r="J58">
-        <v>21</v>
+        <v>121</v>
       </c>
       <c r="K58">
-        <v>22</v>
+        <v>122</v>
       </c>
       <c r="L58">
-        <v>31</v>
+        <v>131</v>
       </c>
       <c r="M58">
-        <v>32</v>
+        <v>132</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="B59" t="s">
+        <v>5</v>
+      </c>
+      <c r="C59" t="s">
         <v>6</v>
       </c>
-      <c r="C59" t="s">
-        <v>1</v>
-      </c>
       <c r="D59" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="E59" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F59" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G59" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H59">
-        <v>11</v>
+        <v>111</v>
       </c>
       <c r="I59">
-        <v>12</v>
+        <v>112</v>
       </c>
       <c r="J59">
-        <v>21</v>
+        <v>121</v>
       </c>
       <c r="K59">
-        <v>22</v>
+        <v>122</v>
       </c>
       <c r="L59">
-        <v>31</v>
+        <v>131</v>
       </c>
       <c r="M59">
-        <v>32</v>
+        <v>132</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B60" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C60" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D60" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E60" t="s">
         <v>3</v>
       </c>
       <c r="F60" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G60" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H60">
-        <v>11</v>
+        <v>111</v>
       </c>
       <c r="I60">
-        <v>12</v>
+        <v>112</v>
       </c>
       <c r="J60">
-        <v>21</v>
+        <v>121</v>
       </c>
       <c r="K60">
-        <v>22</v>
+        <v>122</v>
       </c>
       <c r="L60">
-        <v>31</v>
+        <v>131</v>
       </c>
       <c r="M60">
-        <v>32</v>
+        <v>132</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="B61" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C61" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D61" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E61" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F61" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="G61" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H61">
-        <v>11</v>
+        <v>111</v>
       </c>
       <c r="I61">
-        <v>12</v>
+        <v>112</v>
       </c>
       <c r="J61">
-        <v>21</v>
+        <v>121</v>
       </c>
       <c r="K61">
-        <v>22</v>
+        <v>122</v>
       </c>
       <c r="L61">
-        <v>31</v>
+        <v>131</v>
       </c>
       <c r="M61">
-        <v>32</v>
+        <v>132</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B62" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C62" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D62" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E62" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F62" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G62" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H62">
-        <v>11</v>
+        <v>111</v>
       </c>
       <c r="I62">
-        <v>12</v>
+        <v>112</v>
       </c>
       <c r="J62">
-        <v>21</v>
+        <v>121</v>
       </c>
       <c r="K62">
-        <v>22</v>
+        <v>122</v>
       </c>
       <c r="L62">
-        <v>31</v>
+        <v>131</v>
       </c>
       <c r="M62">
-        <v>32</v>
+        <v>132</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="B63" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C63" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D63" t="s">
+        <v>5</v>
+      </c>
+      <c r="E63" t="s">
+        <v>8</v>
+      </c>
+      <c r="F63" t="s">
         <v>12</v>
       </c>
-      <c r="E63" t="s">
-        <v>3</v>
-      </c>
-      <c r="F63" t="s">
-        <v>8</v>
-      </c>
       <c r="G63" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H63">
-        <v>11</v>
+        <v>111</v>
       </c>
       <c r="I63">
-        <v>12</v>
+        <v>112</v>
       </c>
       <c r="J63">
-        <v>21</v>
+        <v>121</v>
       </c>
       <c r="K63">
-        <v>22</v>
+        <v>122</v>
       </c>
       <c r="L63">
-        <v>31</v>
+        <v>131</v>
       </c>
       <c r="M63">
-        <v>32</v>
+        <v>132</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B64" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C64" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D64" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="E64" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F64" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G64" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H64">
-        <v>11</v>
+        <v>111</v>
       </c>
       <c r="I64">
-        <v>12</v>
+        <v>112</v>
       </c>
       <c r="J64">
-        <v>21</v>
+        <v>121</v>
       </c>
       <c r="K64">
-        <v>22</v>
+        <v>122</v>
       </c>
       <c r="L64">
-        <v>31</v>
+        <v>131</v>
       </c>
       <c r="M64">
-        <v>32</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>

--- a/xls/incorrect/G2_TP_B.xlsx
+++ b/xls/incorrect/G2_TP_B.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="75" windowWidth="14115" windowHeight="6735"/>
+    <workbookView xWindow="9000" yWindow="-75" windowWidth="8985" windowHeight="6735"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -88,12 +88,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -108,8 +114,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -414,664 +422,664 @@
   <dimension ref="A1:M64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:M64"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1">
+      <c r="A1" s="1">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1">
-        <v>111</v>
-      </c>
-      <c r="I1">
-        <v>112</v>
-      </c>
-      <c r="J1">
-        <v>121</v>
-      </c>
-      <c r="K1">
-        <v>122</v>
-      </c>
-      <c r="L1">
-        <v>131</v>
-      </c>
-      <c r="M1">
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="1">
+        <v>111</v>
+      </c>
+      <c r="I1" s="1">
+        <v>112</v>
+      </c>
+      <c r="J1" s="1">
+        <v>121</v>
+      </c>
+      <c r="K1" s="1">
+        <v>122</v>
+      </c>
+      <c r="L1" s="1">
+        <v>131</v>
+      </c>
+      <c r="M1" s="1">
         <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="A2" s="1">
         <v>56</v>
       </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2">
-        <v>111</v>
-      </c>
-      <c r="I2">
-        <v>112</v>
-      </c>
-      <c r="J2">
-        <v>121</v>
-      </c>
-      <c r="K2">
-        <v>122</v>
-      </c>
-      <c r="L2">
-        <v>131</v>
-      </c>
-      <c r="M2">
+      <c r="D2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="1">
+        <v>111</v>
+      </c>
+      <c r="I2" s="1">
+        <v>112</v>
+      </c>
+      <c r="J2" s="1">
+        <v>121</v>
+      </c>
+      <c r="K2" s="1">
+        <v>122</v>
+      </c>
+      <c r="L2" s="1">
+        <v>131</v>
+      </c>
+      <c r="M2" s="1">
         <v>132</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="A3" s="1">
         <v>50</v>
       </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H3">
-        <v>111</v>
-      </c>
-      <c r="I3">
-        <v>112</v>
-      </c>
-      <c r="J3">
-        <v>121</v>
-      </c>
-      <c r="K3">
-        <v>122</v>
-      </c>
-      <c r="L3">
-        <v>131</v>
-      </c>
-      <c r="M3">
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" s="1">
+        <v>111</v>
+      </c>
+      <c r="I3" s="1">
+        <v>112</v>
+      </c>
+      <c r="J3" s="1">
+        <v>121</v>
+      </c>
+      <c r="K3" s="1">
+        <v>122</v>
+      </c>
+      <c r="L3" s="1">
+        <v>131</v>
+      </c>
+      <c r="M3" s="1">
         <v>132</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="A4" s="1">
         <v>49</v>
       </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="B4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H4">
-        <v>111</v>
-      </c>
-      <c r="I4">
-        <v>112</v>
-      </c>
-      <c r="J4">
-        <v>121</v>
-      </c>
-      <c r="K4">
-        <v>122</v>
-      </c>
-      <c r="L4">
-        <v>131</v>
-      </c>
-      <c r="M4">
+      <c r="H4" s="1">
+        <v>111</v>
+      </c>
+      <c r="I4" s="1">
+        <v>112</v>
+      </c>
+      <c r="J4" s="1">
+        <v>121</v>
+      </c>
+      <c r="K4" s="1">
+        <v>122</v>
+      </c>
+      <c r="L4" s="1">
+        <v>131</v>
+      </c>
+      <c r="M4" s="1">
         <v>132</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="A5" s="1">
         <v>6</v>
       </c>
-      <c r="B5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="B5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F5" t="s">
-        <v>4</v>
-      </c>
-      <c r="G5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H5">
-        <v>111</v>
-      </c>
-      <c r="I5">
-        <v>112</v>
-      </c>
-      <c r="J5">
-        <v>121</v>
-      </c>
-      <c r="K5">
-        <v>122</v>
-      </c>
-      <c r="L5">
-        <v>131</v>
-      </c>
-      <c r="M5">
+      <c r="D5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H5" s="1">
+        <v>111</v>
+      </c>
+      <c r="I5" s="1">
+        <v>112</v>
+      </c>
+      <c r="J5" s="1">
+        <v>121</v>
+      </c>
+      <c r="K5" s="1">
+        <v>122</v>
+      </c>
+      <c r="L5" s="1">
+        <v>131</v>
+      </c>
+      <c r="M5" s="1">
         <v>132</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="A6" s="1">
         <v>43</v>
       </c>
-      <c r="B6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="B6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" t="s">
-        <v>5</v>
-      </c>
-      <c r="G6" t="s">
-        <v>8</v>
-      </c>
-      <c r="H6">
-        <v>111</v>
-      </c>
-      <c r="I6">
-        <v>112</v>
-      </c>
-      <c r="J6">
-        <v>121</v>
-      </c>
-      <c r="K6">
-        <v>122</v>
-      </c>
-      <c r="L6">
-        <v>131</v>
-      </c>
-      <c r="M6">
+      <c r="D6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6" s="1">
+        <v>111</v>
+      </c>
+      <c r="I6" s="1">
+        <v>112</v>
+      </c>
+      <c r="J6" s="1">
+        <v>121</v>
+      </c>
+      <c r="K6" s="1">
+        <v>122</v>
+      </c>
+      <c r="L6" s="1">
+        <v>131</v>
+      </c>
+      <c r="M6" s="1">
         <v>132</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="A7" s="1">
         <v>46</v>
       </c>
-      <c r="B7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G7" t="s">
-        <v>3</v>
-      </c>
-      <c r="H7">
-        <v>111</v>
-      </c>
-      <c r="I7">
-        <v>112</v>
-      </c>
-      <c r="J7">
-        <v>121</v>
-      </c>
-      <c r="K7">
-        <v>122</v>
-      </c>
-      <c r="L7">
-        <v>131</v>
-      </c>
-      <c r="M7">
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H7" s="1">
+        <v>111</v>
+      </c>
+      <c r="I7" s="1">
+        <v>112</v>
+      </c>
+      <c r="J7" s="1">
+        <v>121</v>
+      </c>
+      <c r="K7" s="1">
+        <v>122</v>
+      </c>
+      <c r="L7" s="1">
+        <v>131</v>
+      </c>
+      <c r="M7" s="1">
         <v>132</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>3</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="A8" s="1">
+        <v>3</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" t="s">
-        <v>5</v>
-      </c>
-      <c r="E8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" t="s">
+      <c r="C8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G8" t="s">
-        <v>8</v>
-      </c>
-      <c r="H8">
-        <v>111</v>
-      </c>
-      <c r="I8">
-        <v>112</v>
-      </c>
-      <c r="J8">
-        <v>121</v>
-      </c>
-      <c r="K8">
-        <v>122</v>
-      </c>
-      <c r="L8">
-        <v>131</v>
-      </c>
-      <c r="M8">
+      <c r="G8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H8" s="1">
+        <v>111</v>
+      </c>
+      <c r="I8" s="1">
+        <v>112</v>
+      </c>
+      <c r="J8" s="1">
+        <v>121</v>
+      </c>
+      <c r="K8" s="1">
+        <v>122</v>
+      </c>
+      <c r="L8" s="1">
+        <v>131</v>
+      </c>
+      <c r="M8" s="1">
         <v>132</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="A9" s="1">
         <v>18</v>
       </c>
-      <c r="B9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9" t="s">
-        <v>3</v>
-      </c>
-      <c r="D9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" t="s">
+      <c r="B9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F9" t="s">
-        <v>8</v>
-      </c>
-      <c r="G9" t="s">
-        <v>3</v>
-      </c>
-      <c r="H9">
-        <v>111</v>
-      </c>
-      <c r="I9">
-        <v>112</v>
-      </c>
-      <c r="J9">
-        <v>121</v>
-      </c>
-      <c r="K9">
-        <v>122</v>
-      </c>
-      <c r="L9">
-        <v>131</v>
-      </c>
-      <c r="M9">
+      <c r="F9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H9" s="1">
+        <v>111</v>
+      </c>
+      <c r="I9" s="1">
+        <v>112</v>
+      </c>
+      <c r="J9" s="1">
+        <v>121</v>
+      </c>
+      <c r="K9" s="1">
+        <v>122</v>
+      </c>
+      <c r="L9" s="1">
+        <v>131</v>
+      </c>
+      <c r="M9" s="1">
         <v>132</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>2</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="A10" s="1">
+        <v>2</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" t="s">
-        <v>5</v>
-      </c>
-      <c r="F10" t="s">
-        <v>8</v>
-      </c>
-      <c r="G10" t="s">
+      <c r="C10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H10">
-        <v>111</v>
-      </c>
-      <c r="I10">
-        <v>112</v>
-      </c>
-      <c r="J10">
-        <v>121</v>
-      </c>
-      <c r="K10">
-        <v>122</v>
-      </c>
-      <c r="L10">
-        <v>131</v>
-      </c>
-      <c r="M10">
+      <c r="G10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H10" s="1">
+        <v>111</v>
+      </c>
+      <c r="I10" s="1">
+        <v>112</v>
+      </c>
+      <c r="J10" s="1">
+        <v>121</v>
+      </c>
+      <c r="K10" s="1">
+        <v>122</v>
+      </c>
+      <c r="L10" s="1">
+        <v>131</v>
+      </c>
+      <c r="M10" s="1">
         <v>132</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="A11" s="1">
         <v>48</v>
       </c>
-      <c r="B11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" t="s">
-        <v>4</v>
-      </c>
-      <c r="E11" t="s">
-        <v>3</v>
-      </c>
-      <c r="F11" t="s">
+      <c r="B11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G11" t="s">
-        <v>7</v>
-      </c>
-      <c r="H11">
-        <v>111</v>
-      </c>
-      <c r="I11">
-        <v>112</v>
-      </c>
-      <c r="J11">
-        <v>121</v>
-      </c>
-      <c r="K11">
-        <v>122</v>
-      </c>
-      <c r="L11">
-        <v>131</v>
-      </c>
-      <c r="M11">
+      <c r="G11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H11" s="1">
+        <v>111</v>
+      </c>
+      <c r="I11" s="1">
+        <v>112</v>
+      </c>
+      <c r="J11" s="1">
+        <v>121</v>
+      </c>
+      <c r="K11" s="1">
+        <v>122</v>
+      </c>
+      <c r="L11" s="1">
+        <v>131</v>
+      </c>
+      <c r="M11" s="1">
         <v>132</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>7</v>
-      </c>
-      <c r="B12" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" t="s">
-        <v>4</v>
-      </c>
-      <c r="E12" t="s">
-        <v>3</v>
-      </c>
-      <c r="F12" t="s">
-        <v>2</v>
-      </c>
-      <c r="G12" t="s">
+      <c r="A12" s="1">
+        <v>7</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H12">
-        <v>111</v>
-      </c>
-      <c r="I12">
-        <v>112</v>
-      </c>
-      <c r="J12">
-        <v>121</v>
-      </c>
-      <c r="K12">
-        <v>122</v>
-      </c>
-      <c r="L12">
-        <v>131</v>
-      </c>
-      <c r="M12">
+      <c r="H12" s="1">
+        <v>111</v>
+      </c>
+      <c r="I12" s="1">
+        <v>112</v>
+      </c>
+      <c r="J12" s="1">
+        <v>121</v>
+      </c>
+      <c r="K12" s="1">
+        <v>122</v>
+      </c>
+      <c r="L12" s="1">
+        <v>131</v>
+      </c>
+      <c r="M12" s="1">
         <v>132</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13">
+      <c r="A13" s="1">
         <v>14</v>
       </c>
-      <c r="B13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D13" t="s">
-        <v>3</v>
-      </c>
-      <c r="E13" t="s">
+      <c r="B13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G13" t="s">
-        <v>3</v>
-      </c>
-      <c r="H13">
-        <v>111</v>
-      </c>
-      <c r="I13">
-        <v>112</v>
-      </c>
-      <c r="J13">
-        <v>121</v>
-      </c>
-      <c r="K13">
-        <v>122</v>
-      </c>
-      <c r="L13">
-        <v>131</v>
-      </c>
-      <c r="M13">
+      <c r="G13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H13" s="1">
+        <v>111</v>
+      </c>
+      <c r="I13" s="1">
+        <v>112</v>
+      </c>
+      <c r="J13" s="1">
+        <v>121</v>
+      </c>
+      <c r="K13" s="1">
+        <v>122</v>
+      </c>
+      <c r="L13" s="1">
+        <v>131</v>
+      </c>
+      <c r="M13" s="1">
         <v>132</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>8</v>
-      </c>
-      <c r="B14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="A14" s="1">
+        <v>8</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E14" t="s">
-        <v>5</v>
-      </c>
-      <c r="F14" t="s">
-        <v>5</v>
-      </c>
-      <c r="G14" t="s">
-        <v>4</v>
-      </c>
-      <c r="H14">
-        <v>111</v>
-      </c>
-      <c r="I14">
-        <v>112</v>
-      </c>
-      <c r="J14">
-        <v>121</v>
-      </c>
-      <c r="K14">
-        <v>122</v>
-      </c>
-      <c r="L14">
-        <v>131</v>
-      </c>
-      <c r="M14">
+      <c r="E14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H14" s="1">
+        <v>111</v>
+      </c>
+      <c r="I14" s="1">
+        <v>112</v>
+      </c>
+      <c r="J14" s="1">
+        <v>121</v>
+      </c>
+      <c r="K14" s="1">
+        <v>122</v>
+      </c>
+      <c r="L14" s="1">
+        <v>131</v>
+      </c>
+      <c r="M14" s="1">
         <v>132</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15">
+      <c r="A15" s="1">
         <v>22</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C15" t="s">
-        <v>3</v>
-      </c>
-      <c r="D15" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" t="s">
-        <v>2</v>
-      </c>
-      <c r="F15" t="s">
-        <v>4</v>
-      </c>
-      <c r="G15" t="s">
-        <v>7</v>
-      </c>
-      <c r="H15">
-        <v>111</v>
-      </c>
-      <c r="I15">
-        <v>112</v>
-      </c>
-      <c r="J15">
-        <v>121</v>
-      </c>
-      <c r="K15">
-        <v>122</v>
-      </c>
-      <c r="L15">
-        <v>131</v>
-      </c>
-      <c r="M15">
+      <c r="C15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H15" s="1">
+        <v>111</v>
+      </c>
+      <c r="I15" s="1">
+        <v>112</v>
+      </c>
+      <c r="J15" s="1">
+        <v>121</v>
+      </c>
+      <c r="K15" s="1">
+        <v>122</v>
+      </c>
+      <c r="L15" s="1">
+        <v>131</v>
+      </c>
+      <c r="M15" s="1">
         <v>132</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16">
+      <c r="A16" s="1">
         <v>51</v>
       </c>
-      <c r="B16" t="s">
-        <v>4</v>
-      </c>
-      <c r="C16" t="s">
-        <v>4</v>
-      </c>
-      <c r="D16" t="s">
-        <v>8</v>
-      </c>
-      <c r="E16" t="s">
-        <v>3</v>
-      </c>
-      <c r="F16" t="s">
-        <v>8</v>
-      </c>
-      <c r="G16" t="s">
-        <v>8</v>
-      </c>
-      <c r="H16">
-        <v>111</v>
-      </c>
-      <c r="I16">
-        <v>112</v>
-      </c>
-      <c r="J16">
-        <v>121</v>
-      </c>
-      <c r="K16">
-        <v>122</v>
-      </c>
-      <c r="L16">
-        <v>131</v>
-      </c>
-      <c r="M16">
+      <c r="B16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H16" s="1">
+        <v>111</v>
+      </c>
+      <c r="I16" s="1">
+        <v>112</v>
+      </c>
+      <c r="J16" s="1">
+        <v>121</v>
+      </c>
+      <c r="K16" s="1">
+        <v>122</v>
+      </c>
+      <c r="L16" s="1">
+        <v>131</v>
+      </c>
+      <c r="M16" s="1">
         <v>132</v>
       </c>
     </row>
@@ -1080,7 +1088,7 @@
         <v>51</v>
       </c>
       <c r="B17" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C17" t="s">
         <v>4</v>
@@ -1089,7 +1097,7 @@
         <v>8</v>
       </c>
       <c r="E17" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F17" t="s">
         <v>8</v>
@@ -1174,10 +1182,10 @@
         <v>5</v>
       </c>
       <c r="F19" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="G19" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="H19">
         <v>111</v>
@@ -1291,13 +1299,13 @@
         <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E22" t="s">
         <v>2</v>
       </c>
       <c r="F22" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G22" t="s">
         <v>4</v>
@@ -1414,7 +1422,7 @@
         <v>4</v>
       </c>
       <c r="D25" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E25" t="s">
         <v>3</v>
@@ -1423,7 +1431,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H25">
         <v>111</v>
@@ -1526,44 +1534,44 @@
         <v>132</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28">
+    <row r="28" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
         <v>49</v>
       </c>
-      <c r="B28" t="s">
-        <v>7</v>
-      </c>
-      <c r="C28" t="s">
-        <v>7</v>
-      </c>
-      <c r="D28" t="s">
-        <v>3</v>
-      </c>
-      <c r="E28" t="s">
-        <v>5</v>
-      </c>
-      <c r="F28" t="s">
-        <v>5</v>
-      </c>
-      <c r="G28" t="s">
+      <c r="B28" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G28" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="H28">
-        <v>111</v>
-      </c>
-      <c r="I28">
-        <v>112</v>
-      </c>
-      <c r="J28">
-        <v>121</v>
-      </c>
-      <c r="K28">
-        <v>122</v>
-      </c>
-      <c r="L28">
-        <v>131</v>
-      </c>
-      <c r="M28">
+      <c r="H28" s="2">
+        <v>111</v>
+      </c>
+      <c r="I28" s="2">
+        <v>112</v>
+      </c>
+      <c r="J28" s="2">
+        <v>121</v>
+      </c>
+      <c r="K28" s="2">
+        <v>122</v>
+      </c>
+      <c r="L28" s="2">
+        <v>131</v>
+      </c>
+      <c r="M28" s="2">
         <v>132</v>
       </c>
     </row>
@@ -1732,658 +1740,658 @@
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A33">
+      <c r="A33" s="1">
         <v>49</v>
       </c>
-      <c r="B33" t="s">
-        <v>7</v>
-      </c>
-      <c r="C33" t="s">
-        <v>7</v>
-      </c>
-      <c r="D33" t="s">
-        <v>3</v>
-      </c>
-      <c r="E33" t="s">
-        <v>5</v>
-      </c>
-      <c r="F33" t="s">
-        <v>5</v>
-      </c>
-      <c r="G33" t="s">
+      <c r="B33" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G33" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H33">
-        <v>111</v>
-      </c>
-      <c r="I33">
-        <v>112</v>
-      </c>
-      <c r="J33">
-        <v>121</v>
-      </c>
-      <c r="K33">
-        <v>122</v>
-      </c>
-      <c r="L33">
-        <v>131</v>
-      </c>
-      <c r="M33">
+      <c r="H33" s="1">
+        <v>111</v>
+      </c>
+      <c r="I33" s="1">
+        <v>112</v>
+      </c>
+      <c r="J33" s="1">
+        <v>121</v>
+      </c>
+      <c r="K33" s="1">
+        <v>122</v>
+      </c>
+      <c r="L33" s="1">
+        <v>131</v>
+      </c>
+      <c r="M33" s="1">
         <v>132</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>7</v>
-      </c>
-      <c r="B34" t="s">
-        <v>3</v>
-      </c>
-      <c r="C34" t="s">
-        <v>5</v>
-      </c>
-      <c r="D34" t="s">
-        <v>4</v>
-      </c>
-      <c r="E34" t="s">
-        <v>3</v>
-      </c>
-      <c r="F34" t="s">
-        <v>2</v>
-      </c>
-      <c r="G34" t="s">
+      <c r="A34" s="1">
+        <v>7</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G34" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H34">
-        <v>111</v>
-      </c>
-      <c r="I34">
-        <v>112</v>
-      </c>
-      <c r="J34">
-        <v>121</v>
-      </c>
-      <c r="K34">
-        <v>122</v>
-      </c>
-      <c r="L34">
-        <v>131</v>
-      </c>
-      <c r="M34">
+      <c r="H34" s="1">
+        <v>111</v>
+      </c>
+      <c r="I34" s="1">
+        <v>112</v>
+      </c>
+      <c r="J34" s="1">
+        <v>121</v>
+      </c>
+      <c r="K34" s="1">
+        <v>122</v>
+      </c>
+      <c r="L34" s="1">
+        <v>131</v>
+      </c>
+      <c r="M34" s="1">
         <v>132</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A35">
+      <c r="A35" s="1">
         <v>51</v>
       </c>
-      <c r="B35" t="s">
-        <v>4</v>
-      </c>
-      <c r="C35" t="s">
-        <v>4</v>
-      </c>
-      <c r="D35" t="s">
-        <v>8</v>
-      </c>
-      <c r="E35" t="s">
-        <v>3</v>
-      </c>
-      <c r="F35" t="s">
-        <v>8</v>
-      </c>
-      <c r="G35" t="s">
-        <v>8</v>
-      </c>
-      <c r="H35">
-        <v>111</v>
-      </c>
-      <c r="I35">
-        <v>112</v>
-      </c>
-      <c r="J35">
-        <v>121</v>
-      </c>
-      <c r="K35">
-        <v>122</v>
-      </c>
-      <c r="L35">
-        <v>131</v>
-      </c>
-      <c r="M35">
+      <c r="B35" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H35" s="1">
+        <v>111</v>
+      </c>
+      <c r="I35" s="1">
+        <v>112</v>
+      </c>
+      <c r="J35" s="1">
+        <v>121</v>
+      </c>
+      <c r="K35" s="1">
+        <v>122</v>
+      </c>
+      <c r="L35" s="1">
+        <v>131</v>
+      </c>
+      <c r="M35" s="1">
         <v>132</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A36">
+      <c r="A36" s="1">
         <v>14</v>
       </c>
-      <c r="B36" t="s">
-        <v>7</v>
-      </c>
-      <c r="C36" t="s">
-        <v>4</v>
-      </c>
-      <c r="D36" t="s">
-        <v>3</v>
-      </c>
-      <c r="E36" t="s">
+      <c r="B36" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E36" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F36" t="s">
+      <c r="F36" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G36" t="s">
-        <v>3</v>
-      </c>
-      <c r="H36">
-        <v>111</v>
-      </c>
-      <c r="I36">
-        <v>112</v>
-      </c>
-      <c r="J36">
-        <v>121</v>
-      </c>
-      <c r="K36">
-        <v>122</v>
-      </c>
-      <c r="L36">
-        <v>131</v>
-      </c>
-      <c r="M36">
+      <c r="G36" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H36" s="1">
+        <v>111</v>
+      </c>
+      <c r="I36" s="1">
+        <v>112</v>
+      </c>
+      <c r="J36" s="1">
+        <v>121</v>
+      </c>
+      <c r="K36" s="1">
+        <v>122</v>
+      </c>
+      <c r="L36" s="1">
+        <v>131</v>
+      </c>
+      <c r="M36" s="1">
         <v>132</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A37">
+      <c r="A37" s="1">
         <v>18</v>
       </c>
-      <c r="B37" t="s">
-        <v>2</v>
-      </c>
-      <c r="C37" t="s">
-        <v>3</v>
-      </c>
-      <c r="D37" t="s">
-        <v>8</v>
-      </c>
-      <c r="E37" t="s">
+      <c r="B37" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E37" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F37" t="s">
-        <v>8</v>
-      </c>
-      <c r="G37" t="s">
-        <v>3</v>
-      </c>
-      <c r="H37">
-        <v>111</v>
-      </c>
-      <c r="I37">
-        <v>112</v>
-      </c>
-      <c r="J37">
-        <v>121</v>
-      </c>
-      <c r="K37">
-        <v>122</v>
-      </c>
-      <c r="L37">
-        <v>131</v>
-      </c>
-      <c r="M37">
+      <c r="F37" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H37" s="1">
+        <v>111</v>
+      </c>
+      <c r="I37" s="1">
+        <v>112</v>
+      </c>
+      <c r="J37" s="1">
+        <v>121</v>
+      </c>
+      <c r="K37" s="1">
+        <v>122</v>
+      </c>
+      <c r="L37" s="1">
+        <v>131</v>
+      </c>
+      <c r="M37" s="1">
         <v>132</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A38">
+      <c r="A38" s="1">
         <v>56</v>
       </c>
-      <c r="B38" t="s">
-        <v>5</v>
-      </c>
-      <c r="C38" t="s">
+      <c r="B38" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C38" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D38" t="s">
-        <v>4</v>
-      </c>
-      <c r="E38" t="s">
-        <v>7</v>
-      </c>
-      <c r="F38" t="s">
-        <v>7</v>
-      </c>
-      <c r="G38" t="s">
-        <v>8</v>
-      </c>
-      <c r="H38">
-        <v>111</v>
-      </c>
-      <c r="I38">
-        <v>112</v>
-      </c>
-      <c r="J38">
-        <v>121</v>
-      </c>
-      <c r="K38">
-        <v>122</v>
-      </c>
-      <c r="L38">
-        <v>131</v>
-      </c>
-      <c r="M38">
+      <c r="D38" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H38" s="1">
+        <v>111</v>
+      </c>
+      <c r="I38" s="1">
+        <v>112</v>
+      </c>
+      <c r="J38" s="1">
+        <v>121</v>
+      </c>
+      <c r="K38" s="1">
+        <v>122</v>
+      </c>
+      <c r="L38" s="1">
+        <v>131</v>
+      </c>
+      <c r="M38" s="1">
         <v>132</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A39">
+      <c r="A39" s="1">
         <v>43</v>
       </c>
-      <c r="B39" t="s">
-        <v>4</v>
-      </c>
-      <c r="C39" t="s">
+      <c r="B39" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C39" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D39" t="s">
-        <v>3</v>
-      </c>
-      <c r="E39" t="s">
-        <v>8</v>
-      </c>
-      <c r="F39" t="s">
-        <v>5</v>
-      </c>
-      <c r="G39" t="s">
-        <v>8</v>
-      </c>
-      <c r="H39">
-        <v>111</v>
-      </c>
-      <c r="I39">
-        <v>112</v>
-      </c>
-      <c r="J39">
-        <v>121</v>
-      </c>
-      <c r="K39">
-        <v>122</v>
-      </c>
-      <c r="L39">
-        <v>131</v>
-      </c>
-      <c r="M39">
+      <c r="D39" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H39" s="1">
+        <v>111</v>
+      </c>
+      <c r="I39" s="1">
+        <v>112</v>
+      </c>
+      <c r="J39" s="1">
+        <v>121</v>
+      </c>
+      <c r="K39" s="1">
+        <v>122</v>
+      </c>
+      <c r="L39" s="1">
+        <v>131</v>
+      </c>
+      <c r="M39" s="1">
         <v>132</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A40">
+      <c r="A40" s="1">
         <v>46</v>
       </c>
-      <c r="B40" t="s">
-        <v>2</v>
-      </c>
-      <c r="C40" t="s">
-        <v>4</v>
-      </c>
-      <c r="D40" t="s">
-        <v>8</v>
-      </c>
-      <c r="E40" t="s">
-        <v>8</v>
-      </c>
-      <c r="F40" t="s">
-        <v>7</v>
-      </c>
-      <c r="G40" t="s">
-        <v>3</v>
-      </c>
-      <c r="H40">
-        <v>111</v>
-      </c>
-      <c r="I40">
-        <v>112</v>
-      </c>
-      <c r="J40">
-        <v>121</v>
-      </c>
-      <c r="K40">
-        <v>122</v>
-      </c>
-      <c r="L40">
-        <v>131</v>
-      </c>
-      <c r="M40">
+      <c r="B40" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H40" s="1">
+        <v>111</v>
+      </c>
+      <c r="I40" s="1">
+        <v>112</v>
+      </c>
+      <c r="J40" s="1">
+        <v>121</v>
+      </c>
+      <c r="K40" s="1">
+        <v>122</v>
+      </c>
+      <c r="L40" s="1">
+        <v>131</v>
+      </c>
+      <c r="M40" s="1">
         <v>132</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A41">
+      <c r="A41" s="1">
         <v>6</v>
       </c>
-      <c r="B41" t="s">
-        <v>3</v>
-      </c>
-      <c r="C41" t="s">
+      <c r="B41" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C41" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D41" t="s">
-        <v>5</v>
-      </c>
-      <c r="E41" t="s">
-        <v>2</v>
-      </c>
-      <c r="F41" t="s">
-        <v>4</v>
-      </c>
-      <c r="G41" t="s">
-        <v>4</v>
-      </c>
-      <c r="H41">
-        <v>111</v>
-      </c>
-      <c r="I41">
-        <v>112</v>
-      </c>
-      <c r="J41">
-        <v>121</v>
-      </c>
-      <c r="K41">
-        <v>122</v>
-      </c>
-      <c r="L41">
-        <v>131</v>
-      </c>
-      <c r="M41">
+      <c r="D41" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H41" s="1">
+        <v>111</v>
+      </c>
+      <c r="I41" s="1">
+        <v>112</v>
+      </c>
+      <c r="J41" s="1">
+        <v>121</v>
+      </c>
+      <c r="K41" s="1">
+        <v>122</v>
+      </c>
+      <c r="L41" s="1">
+        <v>131</v>
+      </c>
+      <c r="M41" s="1">
         <v>132</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A42">
+      <c r="A42" s="1">
         <v>48</v>
       </c>
-      <c r="B42" t="s">
-        <v>3</v>
-      </c>
-      <c r="C42" t="s">
-        <v>4</v>
-      </c>
-      <c r="D42" t="s">
-        <v>4</v>
-      </c>
-      <c r="E42" t="s">
-        <v>3</v>
-      </c>
-      <c r="F42" t="s">
+      <c r="B42" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F42" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G42" t="s">
-        <v>7</v>
-      </c>
-      <c r="H42">
-        <v>111</v>
-      </c>
-      <c r="I42">
-        <v>112</v>
-      </c>
-      <c r="J42">
-        <v>121</v>
-      </c>
-      <c r="K42">
-        <v>122</v>
-      </c>
-      <c r="L42">
-        <v>131</v>
-      </c>
-      <c r="M42">
+      <c r="G42" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H42" s="1">
+        <v>111</v>
+      </c>
+      <c r="I42" s="1">
+        <v>112</v>
+      </c>
+      <c r="J42" s="1">
+        <v>121</v>
+      </c>
+      <c r="K42" s="1">
+        <v>122</v>
+      </c>
+      <c r="L42" s="1">
+        <v>131</v>
+      </c>
+      <c r="M42" s="1">
         <v>132</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A43">
+      <c r="A43" s="1">
         <v>22</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C43" t="s">
-        <v>3</v>
-      </c>
-      <c r="D43" t="s">
-        <v>8</v>
-      </c>
-      <c r="E43" t="s">
-        <v>2</v>
-      </c>
-      <c r="F43" t="s">
-        <v>4</v>
-      </c>
-      <c r="G43" t="s">
-        <v>7</v>
-      </c>
-      <c r="H43">
-        <v>111</v>
-      </c>
-      <c r="I43">
-        <v>112</v>
-      </c>
-      <c r="J43">
-        <v>121</v>
-      </c>
-      <c r="K43">
-        <v>122</v>
-      </c>
-      <c r="L43">
-        <v>131</v>
-      </c>
-      <c r="M43">
+      <c r="C43" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H43" s="1">
+        <v>111</v>
+      </c>
+      <c r="I43" s="1">
+        <v>112</v>
+      </c>
+      <c r="J43" s="1">
+        <v>121</v>
+      </c>
+      <c r="K43" s="1">
+        <v>122</v>
+      </c>
+      <c r="L43" s="1">
+        <v>131</v>
+      </c>
+      <c r="M43" s="1">
         <v>132</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A44">
+      <c r="A44" s="1">
         <v>16</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C44" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D44" t="s">
-        <v>2</v>
-      </c>
-      <c r="E44" t="s">
-        <v>3</v>
-      </c>
-      <c r="F44" t="s">
-        <v>4</v>
-      </c>
-      <c r="G44" t="s">
-        <v>2</v>
-      </c>
-      <c r="H44">
-        <v>111</v>
-      </c>
-      <c r="I44">
-        <v>112</v>
-      </c>
-      <c r="J44">
-        <v>121</v>
-      </c>
-      <c r="K44">
-        <v>122</v>
-      </c>
-      <c r="L44">
-        <v>131</v>
-      </c>
-      <c r="M44">
+      <c r="D44" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H44" s="1">
+        <v>111</v>
+      </c>
+      <c r="I44" s="1">
+        <v>112</v>
+      </c>
+      <c r="J44" s="1">
+        <v>121</v>
+      </c>
+      <c r="K44" s="1">
+        <v>122</v>
+      </c>
+      <c r="L44" s="1">
+        <v>131</v>
+      </c>
+      <c r="M44" s="1">
         <v>132</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <v>8</v>
-      </c>
-      <c r="B45" t="s">
-        <v>5</v>
-      </c>
-      <c r="C45" t="s">
-        <v>8</v>
-      </c>
-      <c r="D45" t="s">
+      <c r="A45" s="1">
+        <v>8</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D45" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E45" t="s">
-        <v>5</v>
-      </c>
-      <c r="F45" t="s">
-        <v>5</v>
-      </c>
-      <c r="G45" t="s">
-        <v>4</v>
-      </c>
-      <c r="H45">
-        <v>111</v>
-      </c>
-      <c r="I45">
-        <v>112</v>
-      </c>
-      <c r="J45">
-        <v>121</v>
-      </c>
-      <c r="K45">
-        <v>122</v>
-      </c>
-      <c r="L45">
-        <v>131</v>
-      </c>
-      <c r="M45">
+      <c r="E45" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H45" s="1">
+        <v>111</v>
+      </c>
+      <c r="I45" s="1">
+        <v>112</v>
+      </c>
+      <c r="J45" s="1">
+        <v>121</v>
+      </c>
+      <c r="K45" s="1">
+        <v>122</v>
+      </c>
+      <c r="L45" s="1">
+        <v>131</v>
+      </c>
+      <c r="M45" s="1">
         <v>132</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <v>3</v>
-      </c>
-      <c r="B46" t="s">
+      <c r="A46" s="1">
+        <v>3</v>
+      </c>
+      <c r="B46" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C46" t="s">
-        <v>4</v>
-      </c>
-      <c r="D46" t="s">
-        <v>5</v>
-      </c>
-      <c r="E46" t="s">
-        <v>8</v>
-      </c>
-      <c r="F46" t="s">
+      <c r="C46" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F46" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G46" t="s">
-        <v>8</v>
-      </c>
-      <c r="H46">
-        <v>111</v>
-      </c>
-      <c r="I46">
-        <v>112</v>
-      </c>
-      <c r="J46">
-        <v>121</v>
-      </c>
-      <c r="K46">
-        <v>122</v>
-      </c>
-      <c r="L46">
-        <v>131</v>
-      </c>
-      <c r="M46">
+      <c r="G46" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H46" s="1">
+        <v>111</v>
+      </c>
+      <c r="I46" s="1">
+        <v>112</v>
+      </c>
+      <c r="J46" s="1">
+        <v>121</v>
+      </c>
+      <c r="K46" s="1">
+        <v>122</v>
+      </c>
+      <c r="L46" s="1">
+        <v>131</v>
+      </c>
+      <c r="M46" s="1">
         <v>132</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <v>2</v>
-      </c>
-      <c r="B47" t="s">
+      <c r="A47" s="1">
+        <v>2</v>
+      </c>
+      <c r="B47" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C47" t="s">
-        <v>8</v>
-      </c>
-      <c r="D47" t="s">
-        <v>8</v>
-      </c>
-      <c r="E47" t="s">
-        <v>5</v>
-      </c>
-      <c r="F47" t="s">
-        <v>8</v>
-      </c>
-      <c r="G47" t="s">
+      <c r="C47" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F47" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H47">
-        <v>111</v>
-      </c>
-      <c r="I47">
-        <v>112</v>
-      </c>
-      <c r="J47">
-        <v>121</v>
-      </c>
-      <c r="K47">
-        <v>122</v>
-      </c>
-      <c r="L47">
-        <v>131</v>
-      </c>
-      <c r="M47">
+      <c r="G47" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H47" s="1">
+        <v>111</v>
+      </c>
+      <c r="I47" s="1">
+        <v>112</v>
+      </c>
+      <c r="J47" s="1">
+        <v>121</v>
+      </c>
+      <c r="K47" s="1">
+        <v>122</v>
+      </c>
+      <c r="L47" s="1">
+        <v>131</v>
+      </c>
+      <c r="M47" s="1">
         <v>132</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A48">
+      <c r="A48" s="1">
         <v>50</v>
       </c>
-      <c r="B48" t="s">
-        <v>7</v>
-      </c>
-      <c r="C48" t="s">
-        <v>4</v>
-      </c>
-      <c r="D48" t="s">
-        <v>3</v>
-      </c>
-      <c r="E48" t="s">
-        <v>8</v>
-      </c>
-      <c r="F48" t="s">
-        <v>5</v>
-      </c>
-      <c r="G48" t="s">
-        <v>2</v>
-      </c>
-      <c r="H48">
-        <v>111</v>
-      </c>
-      <c r="I48">
-        <v>112</v>
-      </c>
-      <c r="J48">
-        <v>121</v>
-      </c>
-      <c r="K48">
-        <v>122</v>
-      </c>
-      <c r="L48">
-        <v>131</v>
-      </c>
-      <c r="M48">
+      <c r="B48" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H48" s="1">
+        <v>111</v>
+      </c>
+      <c r="I48" s="1">
+        <v>112</v>
+      </c>
+      <c r="J48" s="1">
+        <v>121</v>
+      </c>
+      <c r="K48" s="1">
+        <v>122</v>
+      </c>
+      <c r="L48" s="1">
+        <v>131</v>
+      </c>
+      <c r="M48" s="1">
         <v>132</v>
       </c>
     </row>
@@ -2398,7 +2406,7 @@
         <v>4</v>
       </c>
       <c r="D49" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E49" t="s">
         <v>3</v>
@@ -2407,7 +2415,7 @@
         <v>0</v>
       </c>
       <c r="G49" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H49">
         <v>111</v>
@@ -2521,13 +2529,13 @@
         <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E52" t="s">
         <v>2</v>
       </c>
       <c r="F52" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G52" t="s">
         <v>4</v>
@@ -2609,10 +2617,10 @@
         <v>5</v>
       </c>
       <c r="F54" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="G54" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="H54">
         <v>111</v>
@@ -2843,7 +2851,7 @@
         <v>51</v>
       </c>
       <c r="B60" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C60" t="s">
         <v>4</v>
@@ -2852,7 +2860,7 @@
         <v>8</v>
       </c>
       <c r="E60" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F60" t="s">
         <v>8</v>
@@ -2920,44 +2928,44 @@
         <v>132</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A62">
+    <row r="62" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="2">
         <v>49</v>
       </c>
-      <c r="B62" t="s">
-        <v>7</v>
-      </c>
-      <c r="C62" t="s">
-        <v>7</v>
-      </c>
-      <c r="D62" t="s">
-        <v>3</v>
-      </c>
-      <c r="E62" t="s">
-        <v>5</v>
-      </c>
-      <c r="F62" t="s">
-        <v>5</v>
-      </c>
-      <c r="G62" t="s">
+      <c r="B62" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G62" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="H62">
-        <v>111</v>
-      </c>
-      <c r="I62">
-        <v>112</v>
-      </c>
-      <c r="J62">
-        <v>121</v>
-      </c>
-      <c r="K62">
-        <v>122</v>
-      </c>
-      <c r="L62">
-        <v>131</v>
-      </c>
-      <c r="M62">
+      <c r="H62" s="2">
+        <v>111</v>
+      </c>
+      <c r="I62" s="2">
+        <v>112</v>
+      </c>
+      <c r="J62" s="2">
+        <v>121</v>
+      </c>
+      <c r="K62" s="2">
+        <v>122</v>
+      </c>
+      <c r="L62" s="2">
+        <v>131</v>
+      </c>
+      <c r="M62" s="2">
         <v>132</v>
       </c>
     </row>
